--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44242</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44293</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44242</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44484</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44266</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44387</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44566</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44684</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44357</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44242.61493055556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44365</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>44239</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44258</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44572</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44686</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44750</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44274</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44465</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44928.54091435186</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45014.64974537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45091</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>44899.66722222222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44706.55664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45384.46582175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45687.22067129629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44998.57171296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45244.58456018518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45740.319375</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45355.64226851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44846.49806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45758.32174768519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45196</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45071.85158564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45799.34209490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45209</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45799.35922453704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45798.44768518519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45106.4499074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44595</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45399</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45800.33721064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45212</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45693.40458333334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45805.63157407408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45714.6790625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45804.53324074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45811.62824074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45611.45182870371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45598</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44459.52819444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44338.52836805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45838</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45714.64130787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45321.3408449074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45890.58836805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45351.89471064815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45351.89734953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45643.60787037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45324.37259259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45895.58357638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45815.76396990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45894.68621527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45894.70033564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44501</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45894.69376157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45894.69791666666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44469</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45098.66324074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45687.65769675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44546.51971064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45904.65412037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45904.68760416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>45904.59019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>45180</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45260.61935185185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45280.59041666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44578.30037037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45915.58274305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45826.91336805555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44939</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44522.5925462963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45917.33799768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45826.92831018518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45831</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45015</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45918.65589120371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45832.63880787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45923.35321759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44571</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45247.6030787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45832.65253472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45832.4885300926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>45049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>45478.32665509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45835.59469907408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45614.66459490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45835.37305555555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45036</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45539.580625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45835.36079861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45835.40056712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45839.49458333333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45839.48150462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45839.48538194445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44453</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45932.83972222222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45839.48761574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45839.49334490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45839.49835648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44896.54659722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45936.35118055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45582.64283564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45936.35569444444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45280.66630787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45638.4434837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45937.64949074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45084</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45937.6962037037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44526.68493055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45642.35320601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45252</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45252</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45524.57997685186</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45278</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>45278</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44470</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44263</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45763.55327546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45846.54078703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>45946.63247685185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45491.59671296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45362</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45949.84736111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45950.6122800926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45950.61899305556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45950.6207175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45868.59709490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45868.60686342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>45868.61020833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45954.59641203703</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45957.34657407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45954.6255787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45267.37630787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45153.48958333334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45684.35550925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45958.75099537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45308</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44441.93865740741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45481.563125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44256</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44916.36677083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45757.50133101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45530.42966435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45761.65679398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44917.7606712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45965</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45964.6600462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44837.62194444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45965</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45965.64016203704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45740.31795138889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45452.86884259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45642</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45883.55109953704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45969.80375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45969.81296296296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45968.33152777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45643.63023148148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45730.63413194445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45883.54059027778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45761.65313657407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45478.5044212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45975</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45975</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45757.50351851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45977.20575231482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45978.60552083333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45392</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45293.56115740741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44638</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44235</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45693.39181712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45573.7003125</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45987.45971064815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45989.3315162037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45071</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45958</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>46034.46892361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44488.35737268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44362</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45687.79815972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>46036.66548611111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45420.6553587963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>46037.6750925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44686.85798611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45994.58803240741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44958.57836805555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>46038.59636574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45643.37196759259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45034</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45987.45644675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44341.44221064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45145.45490740741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45712.75179398148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45705.33028935185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>46007.42645833334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>46007.4637962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45775.39707175926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>46006.58538194445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>46007.45054398148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>45764.40886574074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>46006.61049768519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>45597.40923611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44841</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44899.67410879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>46055.42060185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>46055.39263888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>46044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45215</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>46052.50849537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45470.63859953704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44869.47741898148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45643.62467592592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>46055.42400462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45532.77804398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45202.85652777777</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>46058.32744212963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>46058.57175925926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45062</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44893.59541666666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45736.8941087963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45139</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>44314.33216435185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>45467.40405092593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44883.50241898148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44977</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>45685.64887731482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45159</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45579.58155092593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45218.5928587963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45239</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44544.32019675926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45168</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44811.40451388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44917.75925925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45643.38454861111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45049</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45237.89079861111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45201.55571759259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44873</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45271.42447916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45532.77702546296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45324</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45170.54494212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45141</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45755.36796296296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45558.49034722222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45705.3318287037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>44252.68719907408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>44386.58719907407</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45670.69351851852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45252</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45700.46284722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45630.45277777778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45474.55655092592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44974.49958333333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45709.62383101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45427.43978009259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>44893.58832175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45420.65344907407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45086</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45587.64105324074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>44595.42708333334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44777.45040509259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45574</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>44749.42851851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45415.4027199074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44895.90114583333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44504</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45159.83563657408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45159.83638888889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45159.83733796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45388.57505787037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44623.41340277778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45034</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45071.83787037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45776.54106481482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45777.33300925926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45777.90707175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45777.89259259259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45033</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45338.41071759259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45740.3164699074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45714.64899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45419.51291666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45795.82481481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45796.55890046297</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44242</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44293</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44242</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44484</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44266</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44387</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44566</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44684</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44357</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44242.61493055556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44365</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>44239</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44258</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44572</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44686</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44750</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44274</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44465</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44928.54091435186</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45014.64974537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45091</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>44899.66722222222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44706.55664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45384.46582175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45687.22067129629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44998.57171296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45244.58456018518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45740.319375</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45355.64226851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44846.49806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45758.32174768519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45196</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45071.85158564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45799.34209490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45209</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45799.35922453704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45798.44768518519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45106.4499074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44595</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45399</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45800.33721064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45212</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45693.40458333334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45805.63157407408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45714.6790625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45804.53324074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45811.62824074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45611.45182870371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45598</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44459.52819444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44338.52836805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45838</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45714.64130787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45321.3408449074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45890.58836805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45351.89471064815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45351.89734953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45643.60787037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45324.37259259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45895.58357638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45815.76396990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45894.68621527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45894.70033564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44501</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45894.69376157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45894.69791666666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44469</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45098.66324074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45687.65769675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44546.51971064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45904.65412037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45904.68760416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>45904.59019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>45180</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45260.61935185185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45280.59041666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44578.30037037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45915.58274305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45826.91336805555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44939</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44522.5925462963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45917.33799768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45826.92831018518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45831</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45015</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45918.65589120371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45832.63880787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45923.35321759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44571</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45247.6030787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45832.65253472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45832.4885300926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>45049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>45478.32665509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45835.59469907408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45614.66459490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45835.37305555555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45036</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45539.580625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45835.36079861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45835.40056712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45839.49458333333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45839.48150462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45839.48538194445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44453</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45932.83972222222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45839.48761574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45839.49334490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45839.49835648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44896.54659722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45936.35118055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45582.64283564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45936.35569444444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45280.66630787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45638.4434837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45937.64949074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45084</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45937.6962037037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44526.68493055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45642.35320601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45252</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45252</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45524.57997685186</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45278</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>45278</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44470</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44263</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45763.55327546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45846.54078703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>45946.63247685185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45491.59671296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45362</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45949.84736111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45950.6122800926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45950.61899305556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45950.6207175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45868.59709490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45868.60686342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>45868.61020833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45954.59641203703</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45957.34657407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45954.6255787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45267.37630787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45153.48958333334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45684.35550925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45958.75099537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45308</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44441.93865740741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45481.563125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44256</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44916.36677083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45757.50133101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45530.42966435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45761.65679398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44917.7606712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45965</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45964.6600462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44837.62194444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45965</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45965.64016203704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45740.31795138889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45452.86884259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45642</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45883.55109953704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45969.80375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45969.81296296296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45968.33152777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45643.63023148148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45730.63413194445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45883.54059027778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45761.65313657407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45478.5044212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45975</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45975</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45757.50351851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45977.20575231482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45978.60552083333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45392</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45293.56115740741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44638</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44235</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45693.39181712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45573.7003125</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45987.45971064815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45989.3315162037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45071</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45958</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>46034.46892361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44488.35737268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44362</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45687.79815972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>46036.66548611111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45420.6553587963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>46037.6750925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44686.85798611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45994.58803240741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44958.57836805555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>46038.59636574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45643.37196759259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45034</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45987.45644675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44341.44221064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45145.45490740741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45712.75179398148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45705.33028935185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>46007.42645833334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>46007.4637962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45775.39707175926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>46006.58538194445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>46007.45054398148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>45764.40886574074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>46006.61049768519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>45597.40923611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44841</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44899.67410879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>46055.42060185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>46055.39263888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>46044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45215</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>46052.50849537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45470.63859953704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44869.47741898148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45643.62467592592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>46055.42400462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45532.77804398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45202.85652777777</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>46058.32744212963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>46058.57175925926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45062</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44893.59541666666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45736.8941087963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45139</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>44314.33216435185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>45467.40405092593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44883.50241898148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44977</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>45685.64887731482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45159</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45579.58155092593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45218.5928587963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45239</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44544.32019675926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45168</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44811.40451388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44917.75925925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45643.38454861111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45049</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45237.89079861111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45201.55571759259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44873</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45271.42447916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45532.77702546296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45324</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45170.54494212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45141</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45755.36796296296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45558.49034722222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45705.3318287037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>44252.68719907408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>44386.58719907407</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45670.69351851852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45252</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45700.46284722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45630.45277777778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45474.55655092592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44974.49958333333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45709.62383101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45427.43978009259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>44893.58832175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45420.65344907407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45086</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45587.64105324074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>44595.42708333334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44777.45040509259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45574</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>44749.42851851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45415.4027199074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44895.90114583333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44504</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45159.83563657408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45159.83638888889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45159.83733796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45388.57505787037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44623.41340277778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45034</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45071.83787037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45776.54106481482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45777.33300925926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45777.90707175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45777.89259259259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45033</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45338.41071759259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45740.3164699074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45714.64899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45419.51291666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45795.82481481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45796.55890046297</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z388"/>
+  <dimension ref="A1:Z387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,14 +1027,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 38771-2024</t>
+          <t>A 60624-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45547.45959490741</v>
+        <v>44911.65568287037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1085,41 +1085,41 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 38771-2024 artfynd.xlsx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 60624-2022 artfynd.xlsx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 38771-2024 karta.png", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 60624-2022 karta.png", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 38771-2024 FSC-klagomål.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 60624-2022 FSC-klagomål.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 38771-2024 FSC-klagomål mail.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 60624-2022 FSC-klagomål mail.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 38771-2024 tillsynsbegäran.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 60624-2022 tillsynsbegäran.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 38771-2024 tillsynsbegäran mail.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 60624-2022 tillsynsbegäran mail.docx", "A 60624-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4669-2025</t>
+          <t>A 36645-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45687.77530092592</v>
+        <v>45153.55381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1166,49 +1166,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 4669-2025 artfynd.xlsx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 36645-2023 artfynd.xlsx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 4669-2025 karta.png", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 36645-2023 karta.png", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 4669-2025 FSC-klagomål.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 36645-2023 FSC-klagomål.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 4669-2025 FSC-klagomål mail.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 36645-2023 FSC-klagomål mail.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 4669-2025 tillsynsbegäran.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 36645-2023 tillsynsbegäran.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 4669-2025 tillsynsbegäran mail.docx", "A 4669-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/fåglar/A 4669-2025 prioriterade fågelarter.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 36645-2023 tillsynsbegäran mail.docx", "A 36645-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60624-2022</t>
+          <t>A 56305-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44911.65568287037</v>
+        <v>45242.82253472223</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1221,7 +1217,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>20.1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1259,27 +1255,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 60624-2022 artfynd.xlsx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 56305-2023 artfynd.xlsx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 60624-2022 karta.png", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 56305-2023 karta.png", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 60624-2022 FSC-klagomål.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 56305-2023 FSC-klagomål.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 60624-2022 FSC-klagomål mail.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 56305-2023 FSC-klagomål mail.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 60624-2022 tillsynsbegäran.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 56305-2023 tillsynsbegäran.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 60624-2022 tillsynsbegäran mail.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 56305-2023 tillsynsbegäran mail.docx", "A 56305-2023")</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1289,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 56305-2023</t>
+          <t>A 4669-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45242.82253472223</v>
+        <v>45687.77530092592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1391,7 +1387,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>20.1</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1400,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1425,31 +1421,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 56305-2023 artfynd.xlsx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 4669-2025 artfynd.xlsx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 56305-2023 karta.png", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 4669-2025 karta.png", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 56305-2023 FSC-klagomål.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 4669-2025 FSC-klagomål.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 56305-2023 FSC-klagomål mail.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 4669-2025 FSC-klagomål mail.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 56305-2023 tillsynsbegäran.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 4669-2025 tillsynsbegäran.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 56305-2023 tillsynsbegäran mail.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 4669-2025 tillsynsbegäran mail.docx", "A 4669-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/fåglar/A 4669-2025 prioriterade fågelarter.docx", "A 4669-2025")</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,14 +1541,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 36645-2023</t>
+          <t>A 38771-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45153.55381944445</v>
+        <v>45547.45959490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1595,31 +1595,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 36645-2023 artfynd.xlsx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 38771-2024 artfynd.xlsx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 36645-2023 karta.png", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 38771-2024 karta.png", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 36645-2023 FSC-klagomål.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 38771-2024 FSC-klagomål.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 36645-2023 FSC-klagomål mail.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 38771-2024 FSC-klagomål mail.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 36645-2023 tillsynsbegäran.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 38771-2024 tillsynsbegäran.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 36645-2023 tillsynsbegäran mail.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 38771-2024 tillsynsbegäran mail.docx", "A 38771-2024")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44242</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44293</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44242</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,14 +2087,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48592-2021</t>
+          <t>A 59021-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44452</v>
+        <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2144,14 +2144,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59021-2021</t>
+          <t>A 19498-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44490</v>
+        <v>44312.35069444445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2201,14 +2201,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 19498-2021</t>
+          <t>A 48592-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44312.35069444445</v>
+        <v>44452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>44484</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,14 +2429,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55278-2021</t>
+          <t>A 12176-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44475</v>
+        <v>44266</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48039-2021</t>
+          <t>A 55278-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44449</v>
+        <v>44475</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2543,14 +2543,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 68284-2021</t>
+          <t>A 48039-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44526.68170138889</v>
+        <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2600,14 +2600,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12176-2021</t>
+          <t>A 68284-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44266</v>
+        <v>44526.68170138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44387</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3004,14 +3004,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17452-2021</t>
+          <t>A 478-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44299</v>
+        <v>44566</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3061,14 +3061,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11768-2021</t>
+          <t>A 17452-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44265.43287037037</v>
+        <v>44299</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,13 +3080,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3123,14 +3118,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 478-2022</t>
+          <t>A 11768-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44566</v>
+        <v>44265.43287037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3140,6 +3135,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>FÄRGELANDA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -3187,7 +3187,7 @@
         <v>44684</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44357</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44242.61493055556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44365</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>44239</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44258</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44572</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44686</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44750</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4501,14 +4501,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35204-2021</t>
+          <t>A 47179-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44383</v>
+        <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4558,14 +4558,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47179-2021</t>
+          <t>A 52599-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44446</v>
+        <v>44465</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13589-2021</t>
+          <t>A 35204-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44274</v>
+        <v>44383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.4</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52599-2021</t>
+          <t>A 13589-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44465</v>
+        <v>44274</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63176-2023</t>
+          <t>A 56918-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45273.57741898148</v>
+        <v>45244.58456018518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4786,14 +4786,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17627-2024</t>
+          <t>A 37898-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45418.30951388889</v>
+        <v>44811.40451388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,13 +4805,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4848,14 +4843,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17974-2024</t>
+          <t>A 24936-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45419.80950231481</v>
+        <v>44341.44221064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4863,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4905,14 +4900,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3010-2024</t>
+          <t>A 6666-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45315.87491898148</v>
+        <v>45700.46284722222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4920,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4962,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40774-2024</t>
+          <t>A 54698-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45558.48636574074</v>
+        <v>44883.50241898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4977,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5019,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2798-2022</t>
+          <t>A 13673-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44581.38091435185</v>
+        <v>45736.8941087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5076,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 149-2023</t>
+          <t>A 59023-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44928.54091435186</v>
+        <v>45252</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5091,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5133,14 +5128,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24284-2023</t>
+          <t>A 17627-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45079.88011574074</v>
+        <v>45418.30951388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5152,8 +5147,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14813-2023</t>
+          <t>A 12710-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45014.64974537037</v>
+        <v>45384.46582175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5209,13 +5209,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5252,14 +5247,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35539-2021</t>
+          <t>A 17974-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44385</v>
+        <v>45419.80950231481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,7 +5267,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5309,14 +5304,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21588-2022</t>
+          <t>A 40778-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44706</v>
+        <v>45558.49034722222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5329,7 +5324,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5366,14 +5361,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26108-2023</t>
+          <t>A 55840-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45091</v>
+        <v>45239</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5386,7 +5381,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,14 +5418,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57868-2022</t>
+          <t>A 35539-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44899.66722222222</v>
+        <v>44385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5443,7 +5438,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5480,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21547-2022</t>
+          <t>A 43684-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44706.55664351852</v>
+        <v>44837.62194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5500,7 +5495,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5537,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19389-2023</t>
+          <t>A 72655-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45049</v>
+        <v>44546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5557,7 +5552,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5594,14 +5589,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12710-2024</t>
+          <t>A 58330-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45384.46582175926</v>
+        <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5614,7 +5609,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4525-2025</t>
+          <t>A 28530-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45687.22067129629</v>
+        <v>45478.32665509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12198-2023</t>
+          <t>A 68285-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44998.57171296296</v>
+        <v>44526.68493055556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5723,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6180-2022</t>
+          <t>A 53906-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44600</v>
+        <v>44469</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>20.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56918-2023</t>
+          <t>A 54038-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45244.58456018518</v>
+        <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61642-2022</t>
+          <t>A 58324-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44916</v>
+        <v>44901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5894,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14018-2025</t>
+          <t>A 64427-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740.319375</v>
+        <v>45280.66630787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5951,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5988,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8594-2024</t>
+          <t>A 18186-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45355.64226851852</v>
+        <v>45420.65344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6008,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.4</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6045,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45833-2022</t>
+          <t>A 9736-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44846.49806712963</v>
+        <v>45362</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,7 +6065,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.300000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17640-2025</t>
+          <t>A 58317-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45758.32174768519</v>
+        <v>44488.35737268518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6122,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46037-2023</t>
+          <t>A 2117-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45196</v>
+        <v>44578.30037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6179,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6216,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22722-2023</t>
+          <t>A 30406-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45071.85158564815</v>
+        <v>45491.59671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6236,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6273,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24731-2025</t>
+          <t>A 37136-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45799.34209490741</v>
+        <v>45539.580625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6298,7 +6293,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6335,14 +6330,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8574-2024</t>
+          <t>A 45268-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45355</v>
+        <v>44439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6355,7 +6350,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6392,14 +6387,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48850-2023</t>
+          <t>A 71963-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45209</v>
+        <v>44544.32019675926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6412,7 +6407,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6449,14 +6444,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24751-2025</t>
+          <t>A 8594-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45799.35922453704</v>
+        <v>45355.64226851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6464,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6506,14 +6501,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24548-2025</t>
+          <t>A 8223-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45798.44768518519</v>
+        <v>45351.89471064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6521,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6563,14 +6558,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29399-2023</t>
+          <t>A 8224-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45106.4499074074</v>
+        <v>45351.89734953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6578,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6620,14 +6615,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5436-2022</t>
+          <t>A 1997-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44595</v>
+        <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6635,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6677,14 +6672,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15046-2024</t>
+          <t>A 23222-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45399</v>
+        <v>45452.86884259259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6692,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6734,14 +6729,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58330-2021</t>
+          <t>A 27755-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44488</v>
+        <v>45815.76396990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6749,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6791,14 +6786,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25095-2025</t>
+          <t>A 56619-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45800.33721064815</v>
+        <v>44893.59541666666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6811,7 +6806,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6848,14 +6843,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49825-2023</t>
+          <t>A 57868-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45212</v>
+        <v>44899.66722222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,7 +6863,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6905,14 +6900,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5515-2025</t>
+          <t>A 57869-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45693.40458333334</v>
+        <v>44899.67410879629</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6925,7 +6920,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6962,14 +6957,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26292-2025</t>
+          <t>A 8452-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45805.63157407408</v>
+        <v>44977.48174768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6982,7 +6977,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7019,14 +7014,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9308-2025</t>
+          <t>A 15046-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45714.6790625</v>
+        <v>45399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7039,7 +7034,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7076,14 +7071,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17488-2025</t>
+          <t>A 6180-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45757.50461805556</v>
+        <v>44600</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7096,7 +7091,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7133,14 +7128,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25890-2025</t>
+          <t>A 4838-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45804.53324074074</v>
+        <v>44592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7153,7 +7148,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7190,14 +7185,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27054-2025</t>
+          <t>A 61914-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45811.62824074074</v>
+        <v>44917.75925925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7210,7 +7205,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7247,14 +7242,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53047-2024</t>
+          <t>A 30141-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45611.45182870371</v>
+        <v>45826.91336805555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7267,7 +7262,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7304,14 +7299,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50009-2024</t>
+          <t>A 30143-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45598</v>
+        <v>45826.92831018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7324,7 +7319,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7361,14 +7356,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22017-2025</t>
+          <t>A 31146-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45784.78842592592</v>
+        <v>45832.63880787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7381,7 +7376,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7418,14 +7413,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50454-2021</t>
+          <t>A 30994-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44459.52819444444</v>
+        <v>45832.4885300926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7438,7 +7433,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7475,14 +7470,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24528-2021</t>
+          <t>A 5515-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44338.52836805556</v>
+        <v>45693.40458333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7495,7 +7490,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7532,14 +7527,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32608-2025</t>
+          <t>A 22719-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45838</v>
+        <v>45071</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7552,7 +7547,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7589,14 +7584,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9280-2025</t>
+          <t>A 30737-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45714.64130787037</v>
+        <v>45831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7609,7 +7604,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7646,14 +7641,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3657-2024</t>
+          <t>A 31158-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45321.3408449074</v>
+        <v>45832.65253472222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7661,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>12.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7703,14 +7698,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39630-2025</t>
+          <t>A 32608-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45890.58836805556</v>
+        <v>45838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7718,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7760,14 +7755,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8223-2024</t>
+          <t>A 17488-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45351.89471064815</v>
+        <v>45757.50461805556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7775,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7817,14 +7812,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8224-2024</t>
+          <t>A 9308-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45351.89734953704</v>
+        <v>45714.6790625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7832,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7874,14 +7869,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60456-2024</t>
+          <t>A 22017-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45643.60787037037</v>
+        <v>45784.78842592592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7894,7 +7889,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>16.9</v>
+        <v>5.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7931,14 +7926,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4207-2024</t>
+          <t>A 17487-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45324.37259259259</v>
+        <v>45757.50351851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7951,7 +7946,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7988,14 +7983,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40420-2025</t>
+          <t>A 9280-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45895.58357638889</v>
+        <v>45714.64130787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8008,7 +8003,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8045,14 +8040,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2301-2022</t>
+          <t>A 53047-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44578</v>
+        <v>45611.45182870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8065,7 +8060,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8102,14 +8097,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27755-2025</t>
+          <t>A 60456-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45815.76396990741</v>
+        <v>45643.60787037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8122,7 +8117,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>16.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8159,14 +8154,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40213-2025</t>
+          <t>A 19332-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45894.68621527778</v>
+        <v>45049</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8179,7 +8174,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8216,14 +8211,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40226-2025</t>
+          <t>A 12460-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45894.70033564815</v>
+        <v>44638</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8236,7 +8231,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8273,14 +8268,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8257-2023</t>
+          <t>A 39630-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44974</v>
+        <v>45890.58836805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8293,7 +8288,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8330,14 +8325,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61698-2021</t>
+          <t>A 32225-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44501</v>
+        <v>45835.59469907408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8350,7 +8345,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8387,14 +8382,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40221-2025</t>
+          <t>A 31984-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45894.69376157408</v>
+        <v>45835.36079861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8407,7 +8402,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8444,14 +8439,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40222-2025</t>
+          <t>A 31996-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45894.69791666666</v>
+        <v>45835.37305555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8464,7 +8459,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8501,14 +8496,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53906-2021</t>
+          <t>A 32013-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44469</v>
+        <v>45835.40056712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8521,7 +8516,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8558,14 +8553,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27941-2023</t>
+          <t>A 40774-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45098.66324074074</v>
+        <v>45558.48636574074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8578,7 +8573,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8615,14 +8610,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4646-2025</t>
+          <t>A 32785-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45687.65769675926</v>
+        <v>45839.48150462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8635,7 +8630,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8672,14 +8667,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 72612-2021</t>
+          <t>A 40213-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44546.51971064815</v>
+        <v>45894.68621527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8692,7 +8687,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8729,14 +8724,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42310-2025</t>
+          <t>A 32800-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45904.65412037037</v>
+        <v>45839.49458333333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8749,7 +8744,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8786,14 +8781,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 42329-2025</t>
+          <t>A 40221-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45904.68760416667</v>
+        <v>45894.69376157408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8806,7 +8801,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8843,14 +8838,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42257-2025</t>
+          <t>A 40222-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45904.59019675926</v>
+        <v>45894.69791666666</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8858,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8900,14 +8895,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 42402-2023</t>
+          <t>A 32803-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45180</v>
+        <v>45839.49835648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8920,7 +8915,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8957,14 +8952,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51079-2024</t>
+          <t>A 40226-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45603.45733796297</v>
+        <v>45894.70033564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8977,7 +8972,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9014,14 +9009,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 42893-2025</t>
+          <t>A 32787-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45908.6643287037</v>
+        <v>45839.48538194445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9034,7 +9029,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9071,14 +9066,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60766-2023</t>
+          <t>A 32799-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45260.61935185185</v>
+        <v>45839.49334490741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9091,7 +9086,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>11.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9128,14 +9123,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64390-2023</t>
+          <t>A 32789-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45280.59041666667</v>
+        <v>45839.48761574074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9148,7 +9143,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.4</v>
+        <v>20.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9185,14 +9180,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2117-2022</t>
+          <t>A 40420-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44578.30037037037</v>
+        <v>45895.58357638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9200,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9242,14 +9237,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44127-2025</t>
+          <t>A 62643-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45915.58274305556</v>
+        <v>45271.42447916666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9262,7 +9257,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9299,14 +9294,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30141-2025</t>
+          <t>A 34379-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45826.91336805555</v>
+        <v>45846.54078703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1997-2023</t>
+          <t>A 27941-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44939</v>
+        <v>45098.66324074074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 66955-2021</t>
+          <t>A 24284-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44522.5925462963</v>
+        <v>45079.88011574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9433,7 +9428,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44552-2025</t>
+          <t>A 60321-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45917.33799768519</v>
+        <v>45643.37196759259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9490,7 +9485,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30143-2025</t>
+          <t>A 42329-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45826.92831018518</v>
+        <v>45904.68760416667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9542,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9584,14 +9579,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30737-2025</t>
+          <t>A 42310-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45831</v>
+        <v>45904.65412037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9599,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9641,14 +9636,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 15043-2023</t>
+          <t>A 60468-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45015</v>
+        <v>45643.62467592592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9661,7 +9656,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9698,14 +9693,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44990-2025</t>
+          <t>A 59960-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45918.65589120371</v>
+        <v>45642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9718,7 +9713,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9755,14 +9750,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31146-2025</t>
+          <t>A 59964-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45832.63880787037</v>
+        <v>45642.35320601852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9775,7 +9770,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9812,14 +9807,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45669-2025</t>
+          <t>A 42257-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45923.35321759259</v>
+        <v>45904.59019675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9832,7 +9827,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9869,14 +9864,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1030-2022</t>
+          <t>A 12198-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44571</v>
+        <v>44998.57171296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9889,7 +9884,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9926,14 +9921,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57991-2023</t>
+          <t>A 59441-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45247.6030787037</v>
+        <v>45638.4434837963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9946,7 +9941,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9983,14 +9978,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31158-2025</t>
+          <t>A 35098-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45832.65253472222</v>
+        <v>45145.45490740741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10003,7 +9998,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>12.3</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10040,14 +10035,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 30994-2025</t>
+          <t>A 51079-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45832.4885300926</v>
+        <v>45603.45733796297</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10060,7 +10055,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10097,14 +10092,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 19332-2023</t>
+          <t>A 42893-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45049</v>
+        <v>45908.6643287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10117,7 +10112,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10154,14 +10149,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 28530-2024</t>
+          <t>A 36387-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45478.32665509259</v>
+        <v>45868.59709490741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10174,7 +10169,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10211,14 +10206,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46040-2021</t>
+          <t>A 36390-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44441</v>
+        <v>45868.60686342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10231,7 +10226,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>14.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10268,14 +10263,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32225-2025</t>
+          <t>A 36392-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45835.59469907408</v>
+        <v>45868.61020833333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10288,7 +10283,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10325,14 +10320,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53584-2024</t>
+          <t>A 8450-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45614.66459490741</v>
+        <v>44977</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10345,7 +10340,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10382,14 +10377,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 31996-2025</t>
+          <t>A 44127-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45835.37305555555</v>
+        <v>45915.58274305556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10402,7 +10397,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10439,14 +10434,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17610-2023</t>
+          <t>A 37067-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45036</v>
+        <v>45875</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10459,7 +10454,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10496,14 +10491,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37136-2024</t>
+          <t>A 44552-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45539.580625</v>
+        <v>45917.33799768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10516,7 +10511,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10553,14 +10548,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31984-2025</t>
+          <t>A 17486-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45835.36079861111</v>
+        <v>45757.50133101852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10610,14 +10605,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 32013-2025</t>
+          <t>A 47045-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45835.40056712963</v>
+        <v>45201.55571759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10630,7 +10625,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10667,14 +10662,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32800-2025</t>
+          <t>A 44990-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45839.49458333333</v>
+        <v>45918.65589120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10682,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10724,14 +10719,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 32785-2025</t>
+          <t>A 14813-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45839.48150462963</v>
+        <v>45014.64974537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10743,8 +10738,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10781,14 +10781,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 32787-2025</t>
+          <t>A 45669-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45839.48538194445</v>
+        <v>45923.35321759259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10838,14 +10838,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 48948-2021</t>
+          <t>A 27841-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44453</v>
+        <v>45098.55013888889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10895,14 +10895,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48087-2025</t>
+          <t>A 24791-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45932.83972222222</v>
+        <v>45084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10952,14 +10952,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 32789-2025</t>
+          <t>A 38366-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45839.48761574074</v>
+        <v>45883.55109953704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>20.6</v>
+        <v>7.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11009,14 +11009,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56616-2022</t>
+          <t>A 4525-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44893.59137731481</v>
+        <v>45687.22067129629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11066,14 +11066,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1021-2023</t>
+          <t>A 4646-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44935</v>
+        <v>45687.65769675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11123,14 +11123,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32799-2025</t>
+          <t>A 66955-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45839.49334490741</v>
+        <v>44522.5925462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>11.8</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11180,14 +11180,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 32803-2025</t>
+          <t>A 20359-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45839.49835648148</v>
+        <v>45775.39707175926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11237,14 +11237,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57446-2022</t>
+          <t>A 35761-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44896.54659722222</v>
+        <v>44386.58719907407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11294,14 +11294,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48479-2025</t>
+          <t>A 38363-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45936.35118055555</v>
+        <v>45883.54059027778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11313,13 +11313,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11356,14 +11351,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46534-2024</t>
+          <t>A 57446-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45582.64283564815</v>
+        <v>44896.54659722222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11376,7 +11371,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11413,14 +11408,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48483-2025</t>
+          <t>A 48479-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45936.35569444444</v>
+        <v>45936.35118055555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11433,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11475,14 +11470,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 64427-2023</t>
+          <t>A 22722-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45280.66630787037</v>
+        <v>45071.85158564815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11490,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11532,14 +11527,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59441-2024</t>
+          <t>A 61642-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45638.4434837963</v>
+        <v>44916</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11547,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>9.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11589,14 +11584,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49069-2025</t>
+          <t>A 48483-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45937.64949074074</v>
+        <v>45936.35569444444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11608,8 +11603,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11646,14 +11646,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24791-2023</t>
+          <t>A 35845-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45084</v>
+        <v>45532.77804398148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11703,14 +11703,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49097-2025</t>
+          <t>A 48087-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45937.6962037037</v>
+        <v>45932.83972222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11760,14 +11760,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 68285-2021</t>
+          <t>A 48948-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44526.68493055556</v>
+        <v>44453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11817,14 +11817,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59964-2024</t>
+          <t>A 18175-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45642.35320601852</v>
+        <v>45761.65313657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>20.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11874,14 +11874,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 59022-2023</t>
+          <t>A 49069-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45252</v>
+        <v>45937.64949074074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11931,14 +11931,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59025-2023</t>
+          <t>A 60766-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45252</v>
+        <v>45260.61935185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>44.5</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11988,14 +11988,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 34241-2024</t>
+          <t>A 49097-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45524.57997685186</v>
+        <v>45937.6962037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12045,14 +12045,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 63761-2023</t>
+          <t>A 49825-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45278</v>
+        <v>45212</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12102,14 +12102,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 63762-2023</t>
+          <t>A 61431-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45278</v>
+        <v>44916.36677083333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12159,14 +12159,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54038-2021</t>
+          <t>A 57267-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44470</v>
+        <v>44895.90114583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12216,14 +12216,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11370-2021</t>
+          <t>A 46041-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44263</v>
+        <v>44441.93865740741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12235,13 +12235,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12278,14 +12273,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 18635-2025</t>
+          <t>A 50883-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45763.55327546296</v>
+        <v>45946.63247685185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12293,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12335,14 +12330,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 34379-2025</t>
+          <t>A 50876-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45846.54078703704</v>
+        <v>45946.61502314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12350,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12392,14 +12387,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 27841-2023</t>
+          <t>A 51468-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45098.55013888889</v>
+        <v>45950.6122800926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12407,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12449,14 +12444,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50876-2025</t>
+          <t>A 51483-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45946.61502314815</v>
+        <v>45950.6207175926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12464,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12506,14 +12501,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50883-2025</t>
+          <t>A 51476-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45946.63247685185</v>
+        <v>45950.61899305556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12521,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12563,14 +12558,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 30406-2024</t>
+          <t>A 51271-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45491.59671296296</v>
+        <v>45949.84736111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12578,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12620,14 +12615,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9736-2024</t>
+          <t>A 63761-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45362</v>
+        <v>45278</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12635,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12677,14 +12672,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51271-2025</t>
+          <t>A 59022-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45949.84736111111</v>
+        <v>45252</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12692,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>10.1</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12734,14 +12729,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51468-2025</t>
+          <t>A 59025-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45950.6122800926</v>
+        <v>45252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12749,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>44.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12791,14 +12786,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51476-2025</t>
+          <t>A 52151-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45950.61899305556</v>
+        <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12806,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12848,14 +12843,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 51483-2025</t>
+          <t>A 52584-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45950.6207175926</v>
+        <v>45954.6255787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12863,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12905,14 +12900,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 36387-2025</t>
+          <t>A 52567-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45868.59709490741</v>
+        <v>45954.59641203703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12925,7 +12920,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12962,14 +12957,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 36390-2025</t>
+          <t>A 15043-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45868.60686342593</v>
+        <v>45015</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12977,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>14.1</v>
+        <v>5.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13019,14 +13014,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 36392-2025</t>
+          <t>A 52725-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45868.61020833333</v>
+        <v>45957.34657407407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13039,7 +13034,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13076,14 +13071,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52567-2025</t>
+          <t>A 17640-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45954.59641203703</v>
+        <v>45758.32174768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13096,7 +13091,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13133,14 +13128,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52725-2025</t>
+          <t>A 53276-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45957.34657407407</v>
+        <v>45958.75099537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13153,7 +13148,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13190,14 +13185,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52584-2025</t>
+          <t>A 55310-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45954.6255787037</v>
+        <v>45237.89079861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13210,7 +13205,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13247,14 +13242,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 62146-2023</t>
+          <t>A 54260-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45267.37630787037</v>
+        <v>45964.6600462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13267,7 +13262,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13304,14 +13299,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 36606-2023</t>
+          <t>A 54410-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45153.48958333334</v>
+        <v>45965</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13324,7 +13319,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>13.5</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13361,14 +13356,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 3882-2025</t>
+          <t>A 54401-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45684.35550925926</v>
+        <v>45965</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13380,13 +13375,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13423,14 +13413,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53276-2025</t>
+          <t>A 29770-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45958.75099537037</v>
+        <v>44362</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13443,7 +13433,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13480,14 +13470,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37067-2025</t>
+          <t>A 54405-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45875</v>
+        <v>45965</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13490,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13537,14 +13527,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1944-2024</t>
+          <t>A 54535-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45308</v>
+        <v>45965.64016203704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13557,7 +13547,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13594,14 +13584,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 46041-2021</t>
+          <t>A 2301-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44441.93865740741</v>
+        <v>44578</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13614,7 +13604,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13651,14 +13641,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 29014-2024</t>
+          <t>A 21311-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45481.563125</v>
+        <v>45062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13671,7 +13661,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13708,14 +13698,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10263-2021</t>
+          <t>A 55087-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44256</v>
+        <v>45968.33152777778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13728,7 +13718,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13765,14 +13755,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61431-2022</t>
+          <t>A 29014-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44916.36677083333</v>
+        <v>45481.563125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13785,7 +13775,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13822,14 +13812,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 17486-2025</t>
+          <t>A 24074-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45757.50133101852</v>
+        <v>45078</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13842,7 +13832,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13879,14 +13869,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 35173-2024</t>
+          <t>A 24075-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45530.42966435185</v>
+        <v>45078</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13899,7 +13889,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13936,14 +13926,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 18178-2025</t>
+          <t>A 55299-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45761.65679398148</v>
+        <v>45969.80375</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13956,7 +13946,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13993,14 +13983,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61915-2022</t>
+          <t>A 55300-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44917.7606712963</v>
+        <v>45969.81296296296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14013,7 +14003,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14050,14 +14040,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 54405-2025</t>
+          <t>A 8257-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45965</v>
+        <v>44974</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14070,7 +14060,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14107,14 +14097,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54260-2025</t>
+          <t>A 18003-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45964.6600462963</v>
+        <v>45040</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14127,7 +14117,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>18.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14164,14 +14154,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54410-2025</t>
+          <t>A 26883-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45965</v>
+        <v>45470.63859953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14184,7 +14174,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14221,14 +14211,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43684-2022</t>
+          <t>A 46534-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44837.62194444444</v>
+        <v>45582.64283564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14241,7 +14231,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14278,14 +14268,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54401-2025</t>
+          <t>A 13559-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45965</v>
+        <v>45388.57505787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14298,7 +14288,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14335,14 +14325,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54535-2025</t>
+          <t>A 56699-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45965.64016203704</v>
+        <v>45977.20575231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14355,7 +14345,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14392,14 +14382,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 14015-2025</t>
+          <t>A 56927-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45740.31795138889</v>
+        <v>45978.60552083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14412,7 +14402,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14449,14 +14439,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 23222-2024</t>
+          <t>A 56715-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45452.86884259259</v>
+        <v>45975</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14468,8 +14458,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14506,14 +14501,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59960-2024</t>
+          <t>A 56716-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45642</v>
+        <v>45975</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14525,8 +14520,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14563,14 +14563,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38366-2025</t>
+          <t>A 56614-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45883.55109953704</v>
+        <v>44893.58832175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14620,14 +14620,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55299-2025</t>
+          <t>A 25826-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45969.80375</v>
+        <v>45467.40405092593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14677,14 +14677,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 55300-2025</t>
+          <t>A 17129-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45969.81296296296</v>
+        <v>45034</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14734,14 +14734,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55087-2025</t>
+          <t>A 2798-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45968.33152777778</v>
+        <v>44581.38091435185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14791,14 +14791,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 60475-2024</t>
+          <t>A 60330-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45643.63023148148</v>
+        <v>45643.38454861111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14848,14 +14848,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 12507-2025</t>
+          <t>A 5437-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45730.63413194445</v>
+        <v>44595.42708333334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14905,14 +14905,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38363-2025</t>
+          <t>A 58869-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45883.54059027778</v>
+        <v>45987.45971064815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14962,14 +14962,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 30993-2022</t>
+          <t>A 25223-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44768</v>
+        <v>45086</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15019,14 +15019,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 18175-2025</t>
+          <t>A 59318-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45761.65313657407</v>
+        <v>45989.3315162037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>20.5</v>
+        <v>7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15076,14 +15076,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 28702-2024</t>
+          <t>A 53196-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45478.5044212963</v>
+        <v>45958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15133,14 +15133,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56715-2025</t>
+          <t>A 36606-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45975</v>
+        <v>45153.48958333334</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15152,13 +15152,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15195,14 +15190,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 56716-2025</t>
+          <t>A 1610-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45975</v>
+        <v>46034.46892361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15214,13 +15209,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15257,14 +15247,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 17487-2025</t>
+          <t>A 40630-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45757.50351851852</v>
+        <v>45170.54494212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15277,7 +15267,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15314,14 +15304,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 56699-2025</t>
+          <t>A 3010-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45977.20575231482</v>
+        <v>45315.87491898148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15334,7 +15324,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15371,14 +15361,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56927-2025</t>
+          <t>A 60244-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45978.60552083333</v>
+        <v>45994.58803240741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15391,7 +15381,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15428,14 +15418,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 13960-2024</t>
+          <t>A 26108-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45392</v>
+        <v>45091</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15448,7 +15438,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15485,14 +15475,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 46-2024</t>
+          <t>A 2382-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45293.56115740741</v>
+        <v>46036.66548611111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15505,7 +15495,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15542,14 +15532,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12460-2022</t>
+          <t>A 2696-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44638</v>
+        <v>46037.6750925926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15562,7 +15552,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15599,14 +15589,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 6313-2021</t>
+          <t>A 42402-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44235</v>
+        <v>45180</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15619,7 +15609,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15656,14 +15646,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 5506-2025</t>
+          <t>A 2948-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45693.39181712963</v>
+        <v>46038.59636574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15676,7 +15666,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15713,14 +15703,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 44398-2024</t>
+          <t>A 3882-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45573.7003125</v>
+        <v>45684.35550925926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15732,8 +15722,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15770,14 +15765,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58324-2022</t>
+          <t>A 8561-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44901</v>
+        <v>45709.62383101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15790,7 +15785,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15827,14 +15822,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 58869-2025</t>
+          <t>A 7389-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45987.45971064815</v>
+        <v>45705.3318287037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15847,7 +15842,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15884,14 +15879,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59318-2025</t>
+          <t>A 57557-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45989.3315162037</v>
+        <v>45630.45277777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15904,7 +15899,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15941,14 +15936,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22719-2023</t>
+          <t>A 48850-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45071</v>
+        <v>45209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15961,7 +15956,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15998,14 +15993,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 53196-2025</t>
+          <t>A 58868-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45958</v>
+        <v>45987.45644675926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16018,7 +16013,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16055,14 +16050,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1610-2026</t>
+          <t>A 62223-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46034.46892361111</v>
+        <v>46006.58538194445</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16075,7 +16070,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16112,14 +16107,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 58317-2021</t>
+          <t>A 18635-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44488.35737268518</v>
+        <v>45763.55327546296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16132,7 +16127,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16169,14 +16164,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 29770-2021</t>
+          <t>A 18538-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44362</v>
+        <v>44686.85798611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16189,7 +16184,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16226,14 +16221,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 4672-2025</t>
+          <t>A 62254-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45687.79815972222</v>
+        <v>46006.61049768519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16246,7 +16241,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16283,14 +16278,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 2382-2026</t>
+          <t>A 20036-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46036.66548611111</v>
+        <v>44314.33216435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16303,7 +16298,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16340,14 +16335,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 18003-2023</t>
+          <t>A 5506-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45040</v>
+        <v>45693.39181712963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16360,7 +16355,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>18.5</v>
+        <v>2.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16397,14 +16392,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 18188-2024</t>
+          <t>A 51019-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45420.6553587963</v>
+        <v>45218.5928587963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16417,7 +16412,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16454,14 +16449,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 24075-2023</t>
+          <t>A 28803-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45078</v>
+        <v>44749.42851851852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16474,7 +16469,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16511,14 +16506,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 2696-2026</t>
+          <t>A 18188-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46037.6750925926</v>
+        <v>45420.6553587963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16531,7 +16526,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16568,14 +16563,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 18538-2022</t>
+          <t>A 62405-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44686.85798611111</v>
+        <v>46007.42645833334</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16588,7 +16583,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16625,14 +16620,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60244-2025</t>
+          <t>A 44796-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45994.58803240741</v>
+        <v>44841</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16645,7 +16640,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16682,14 +16677,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 5032-2023</t>
+          <t>A 62435-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44958.57836805555</v>
+        <v>46007.4637962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16702,7 +16697,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16739,14 +16734,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2948-2026</t>
+          <t>A 62426-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46038.59636574074</v>
+        <v>46007.45054398148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16759,7 +16754,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16796,14 +16791,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 60321-2024</t>
+          <t>A 37784-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45643.37196759259</v>
+        <v>45159.83563657408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16816,7 +16811,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16853,14 +16848,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 16424-2024</t>
+          <t>A 37787-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45407.66299768518</v>
+        <v>45159.83638888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16873,7 +16868,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>9.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16910,14 +16905,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 17586-2023</t>
+          <t>A 37788-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45034</v>
+        <v>45159.83733796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16930,7 +16925,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16967,14 +16962,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 58868-2025</t>
+          <t>A 59020-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45987.45644675926</v>
+        <v>45252</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16987,7 +16982,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17024,14 +17019,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8452-2023</t>
+          <t>A 50046-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44977.48174768518</v>
+        <v>45215</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17044,7 +17039,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17081,14 +17076,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 24936-2021</t>
+          <t>A 35844-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44341.44221064815</v>
+        <v>45532.77702546296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17101,7 +17096,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17138,14 +17133,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 35098-2023</t>
+          <t>A 30993-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45145.45490740741</v>
+        <v>44768</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17158,7 +17153,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17195,14 +17190,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 8819-2025</t>
+          <t>A 5962-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45712.75179398148</v>
+        <v>46052.50849537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17215,7 +17210,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17252,14 +17247,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 7387-2025</t>
+          <t>A 21547-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45705.33028935185</v>
+        <v>44706.55664351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17272,7 +17267,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17309,14 +17304,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 62405-2025</t>
+          <t>A 4168-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46007.42645833334</v>
+        <v>46044</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17329,7 +17324,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17366,14 +17361,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 62435-2025</t>
+          <t>A 46037-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46007.4637962963</v>
+        <v>45196</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17386,7 +17381,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17423,14 +17418,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 20359-2025</t>
+          <t>A 6210-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45775.39707175926</v>
+        <v>46055.42400462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17480,14 +17475,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 62223-2025</t>
+          <t>A 51434-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>46006.58538194445</v>
+        <v>44869.47741898148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17500,7 +17495,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17537,14 +17532,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 62426-2025</t>
+          <t>A 6206-2026</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>46007.45054398148</v>
+        <v>46055.42060185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17557,7 +17552,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17594,14 +17589,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 18842-2025</t>
+          <t>A 6194-2026</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45764.40886574074</v>
+        <v>46055.39263888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17651,14 +17646,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 62254-2025</t>
+          <t>A 56616-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46006.61049768519</v>
+        <v>44893.59137731481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17671,7 +17666,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17708,14 +17703,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 49826-2024</t>
+          <t>A 10381-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45597.40923611111</v>
+        <v>44623.41340277778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17765,14 +17760,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 44796-2022</t>
+          <t>A 7075-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44841</v>
+        <v>46058.32744212963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17784,8 +17779,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17822,14 +17822,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 57869-2022</t>
+          <t>A 46-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44899.67410879629</v>
+        <v>45293.56115740741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17879,14 +17879,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6206-2026</t>
+          <t>A 7230-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46055.42060185185</v>
+        <v>46058.57175925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17898,8 +17898,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17936,14 +17941,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 6194-2026</t>
+          <t>A 47461-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46055.39263888889</v>
+        <v>45202.85652777777</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17956,7 +17961,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17993,14 +17998,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 4168-2026</t>
+          <t>A 53559-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46044</v>
+        <v>44879</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18013,7 +18018,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18050,14 +18055,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 50046-2023</t>
+          <t>A 45710-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45215</v>
+        <v>45579.58155092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18070,7 +18075,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18107,14 +18112,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 5962-2026</t>
+          <t>A 72612-2021</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46052.50849537037</v>
+        <v>44546.51971064815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18127,7 +18132,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18164,14 +18169,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 26883-2024</t>
+          <t>A 62146-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45470.63859953704</v>
+        <v>45267.37630787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18184,7 +18189,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18221,14 +18226,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 51434-2022</t>
+          <t>A 4285-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44869.47741898148</v>
+        <v>45685.64887731482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18241,7 +18246,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18278,14 +18283,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 60468-2024</t>
+          <t>A 61698-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45643.62467592592</v>
+        <v>44501</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18298,7 +18303,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18335,14 +18340,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 6210-2026</t>
+          <t>A 16917-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46055.42400462963</v>
+        <v>45755.36796296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18355,7 +18360,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18392,14 +18397,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 45268-2021</t>
+          <t>A 50454-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44439</v>
+        <v>44459.52819444444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18412,7 +18417,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18449,14 +18454,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 35845-2024</t>
+          <t>A 17586-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45532.77804398148</v>
+        <v>45034</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18469,7 +18474,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18506,14 +18511,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 47461-2023</t>
+          <t>A 22721-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45202.85652777777</v>
+        <v>45071.83787037037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18526,7 +18531,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18563,14 +18568,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 7075-2026</t>
+          <t>A 46040-2021</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>46058.32744212963</v>
+        <v>44441</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18582,13 +18587,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18625,14 +18625,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 7230-2026</t>
+          <t>A 5436-2022</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>46058.57175925926</v>
+        <v>44595</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18644,13 +18644,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.1</v>
+        <v>11.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18687,14 +18682,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 21311-2023</t>
+          <t>A 1944-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45062</v>
+        <v>45308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18707,7 +18702,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18744,14 +18739,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 56619-2022</t>
+          <t>A 47530-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44893.59541666666</v>
+        <v>45587.64105324074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18764,7 +18759,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18801,14 +18796,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 13673-2025</t>
+          <t>A 11370-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45736.8941087963</v>
+        <v>44263</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18820,8 +18815,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G314" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18858,14 +18858,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 34433-2023</t>
+          <t>A 21588-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45139</v>
+        <v>44706</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18915,14 +18915,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20036-2021</t>
+          <t>A 9792-2021</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44314.33216435185</v>
+        <v>44252.68719907408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18972,14 +18972,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 25826-2024</t>
+          <t>A 61915-2022</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45467.40405092593</v>
+        <v>44917.7606712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19029,14 +19029,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 54698-2022</t>
+          <t>A 10263-2021</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44883.50241898148</v>
+        <v>44256</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19086,14 +19086,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 8450-2023</t>
+          <t>A 18932-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44977</v>
+        <v>45427.43978009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19143,14 +19143,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 4285-2025</t>
+          <t>A 53584-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45685.64887731482</v>
+        <v>45614.66459490741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19200,14 +19200,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 37783-2023</t>
+          <t>A 1021-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45159</v>
+        <v>44935</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19257,14 +19257,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 45710-2024</t>
+          <t>A 149-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45579.58155092593</v>
+        <v>44928.54091435186</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19314,14 +19314,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 51019-2023</t>
+          <t>A 8819-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45218.5928587963</v>
+        <v>45712.75179398148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.6</v>
+        <v>8.1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 55840-2023</t>
+          <t>A 13960-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45239</v>
+        <v>45392</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 71963-2021</t>
+          <t>A 19386-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44544.32019675926</v>
+        <v>45049</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 4838-2022</t>
+          <t>A 39962-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44592</v>
+        <v>45168</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19542,14 +19542,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 39962-2023</t>
+          <t>A 29399-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45168</v>
+        <v>45106.4499074074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19599,14 +19599,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 37898-2022</t>
+          <t>A 45833-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44811.40451388889</v>
+        <v>44846.49806712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19656,14 +19656,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 61914-2022</t>
+          <t>A 17610-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44917.75925925926</v>
+        <v>45036</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19713,14 +19713,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 60330-2024</t>
+          <t>A 63762-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45643.38454861111</v>
+        <v>45278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19770,14 +19770,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 19386-2023</t>
+          <t>A 4206-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45049</v>
+        <v>45324</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19827,14 +19827,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 55310-2023</t>
+          <t>A 8185-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45237.89079861111</v>
+        <v>44974.49958333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19884,14 +19884,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 47045-2023</t>
+          <t>A 34433-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45201.55571759259</v>
+        <v>45139</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19941,14 +19941,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 52151-2022</t>
+          <t>A 5032-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44873</v>
+        <v>44958.57836805555</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19998,14 +19998,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 62643-2023</t>
+          <t>A 35173-2024</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45271.42447916666</v>
+        <v>45530.42966435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20055,14 +20055,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 35844-2024</t>
+          <t>A 18178-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45532.77702546296</v>
+        <v>45761.65679398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20112,14 +20112,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 4206-2024</t>
+          <t>A 57991-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45324</v>
+        <v>45247.6030787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20169,14 +20169,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 40630-2023</t>
+          <t>A 17456-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45170.54494212963</v>
+        <v>45415.4027199074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20226,14 +20226,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 34715-2023</t>
+          <t>A 18842-2025</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45141</v>
+        <v>45764.40886574074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20283,14 +20283,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 16917-2025</t>
+          <t>A 14015-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45755.36796296296</v>
+        <v>45740.31795138889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20340,14 +20340,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 40778-2024</t>
+          <t>A 44398-2024</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45558.49034722222</v>
+        <v>45573.7003125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20397,14 +20397,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 7389-2025</t>
+          <t>A 24528-2021</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45705.3318287037</v>
+        <v>44338.52836805556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20454,14 +20454,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 9792-2021</t>
+          <t>A 19389-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44252.68719907408</v>
+        <v>45049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20511,14 +20511,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 24074-2023</t>
+          <t>A 34241-2024</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45078</v>
+        <v>45524.57997685186</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20568,14 +20568,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 35761-2021</t>
+          <t>A 27521-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44386.58719907407</v>
+        <v>45474.55655092592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20625,14 +20625,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 1678-2025</t>
+          <t>A 7387-2025</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45670.69351851852</v>
+        <v>45705.33028935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20682,14 +20682,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 59020-2023</t>
+          <t>A 44846-2024</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45252</v>
+        <v>45574</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20739,14 +20739,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 6666-2025</t>
+          <t>A 62751-2021</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45700.46284722222</v>
+        <v>44504</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20796,14 +20796,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 59023-2023</t>
+          <t>A 31885-2022</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45252</v>
+        <v>44777.45040509259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20853,14 +20853,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 57557-2024</t>
+          <t>A 1030-2022</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45630.45277777778</v>
+        <v>44571</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20910,14 +20910,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 53559-2022</t>
+          <t>A 34715-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44879</v>
+        <v>45141</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>0.4</v>
+        <v>7.2</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20967,14 +20967,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 27521-2024</t>
+          <t>A 1678-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45474.55655092592</v>
+        <v>45670.69351851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21024,14 +21024,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 8185-2023</t>
+          <t>A 37783-2023</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>44974.49958333333</v>
+        <v>45159</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21081,14 +21081,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 8561-2025</t>
+          <t>A 64390-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45709.62383101852</v>
+        <v>45280.59041666667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21138,14 +21138,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 18932-2024</t>
+          <t>A 3657-2024</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45427.43978009259</v>
+        <v>45321.3408449074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21195,14 +21195,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 56614-2022</t>
+          <t>A 60475-2024</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44893.58832175926</v>
+        <v>45643.63023148148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21252,14 +21252,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 18186-2024</t>
+          <t>A 49826-2024</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45420.65344907407</v>
+        <v>45597.40923611111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21309,14 +21309,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 25223-2023</t>
+          <t>A 16424-2024</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45086</v>
+        <v>45407.66299768518</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>3.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21366,14 +21366,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 47530-2024</t>
+          <t>A 4672-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45587.64105324074</v>
+        <v>45687.79815972222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21423,14 +21423,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 5437-2022</t>
+          <t>A 63176-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>44595.42708333334</v>
+        <v>45273.57741898148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21480,14 +21480,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 72655-2021</t>
+          <t>A 12507-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44546</v>
+        <v>45730.63413194445</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21537,14 +21537,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 31885-2022</t>
+          <t>A 14018-2025</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>44777.45040509259</v>
+        <v>45740.319375</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21594,14 +21594,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 44846-2024</t>
+          <t>A 28702-2024</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45574</v>
+        <v>45478.5044212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21651,14 +21651,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 28803-2022</t>
+          <t>A 20736-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>44749.42851851852</v>
+        <v>45776.54106481482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21708,14 +21708,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 17456-2024</t>
+          <t>A 20861-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45415.4027199074</v>
+        <v>45777.33300925926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21765,14 +21765,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 57267-2022</t>
+          <t>A 21126-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>44895.90114583333</v>
+        <v>45777.90707175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21822,14 +21822,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 62751-2021</t>
+          <t>A 21125-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>44504</v>
+        <v>45777.89259259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -21879,14 +21879,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 37784-2023</t>
+          <t>A 16828-2023</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45159.83563657408</v>
+        <v>45033</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -21936,14 +21936,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 37787-2023</t>
+          <t>A 6322-2024</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45159.83638888889</v>
+        <v>45338.41071759259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -21993,14 +21993,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 37788-2023</t>
+          <t>A 60382-2023</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45159.83733796296</v>
+        <v>45259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22050,14 +22050,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 13559-2024</t>
+          <t>A 9285-2025</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45388.57505787037</v>
+        <v>45714.64899305555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -22107,14 +22107,14 @@
     <row r="372" ht="15" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 10381-2022</t>
+          <t>A 15077-2025</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>44623.41340277778</v>
+        <v>45743.81966435185</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -22164,14 +22164,14 @@
     <row r="373" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>A 17129-2023</t>
+          <t>A 12533-2025</t>
         </is>
       </c>
       <c r="B373" s="1" t="n">
-        <v>45034</v>
+        <v>45730.69164351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -22221,14 +22221,14 @@
     <row r="374" ht="15" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>A 22721-2023</t>
+          <t>A 14014-2025</t>
         </is>
       </c>
       <c r="B374" s="1" t="n">
-        <v>45071.83787037037</v>
+        <v>45740.3164699074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -22278,14 +22278,14 @@
     <row r="375" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>A 20736-2025</t>
+          <t>A 24082-2025</t>
         </is>
       </c>
       <c r="B375" s="1" t="n">
-        <v>45776.54106481482</v>
+        <v>45796.55890046297</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -22335,14 +22335,14 @@
     <row r="376" ht="15" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
-          <t>A 20861-2025</t>
+          <t>A 17911-2024</t>
         </is>
       </c>
       <c r="B376" s="1" t="n">
-        <v>45777.33300925926</v>
+        <v>45419.51291666667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22354,8 +22354,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G376" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -22392,14 +22397,14 @@
     <row r="377" ht="15" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
-          <t>A 21126-2025</t>
+          <t>A 23936-2025</t>
         </is>
       </c>
       <c r="B377" s="1" t="n">
-        <v>45777.90707175926</v>
+        <v>45795.82481481481</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22412,7 +22417,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -22449,14 +22454,14 @@
     <row r="378" ht="15" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>A 21125-2025</t>
+          <t>A 8574-2024</t>
         </is>
       </c>
       <c r="B378" s="1" t="n">
-        <v>45777.89259259259</v>
+        <v>45355</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22469,7 +22474,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -22506,14 +22511,14 @@
     <row r="379" ht="15" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
-          <t>A 16828-2023</t>
+          <t>A 24548-2025</t>
         </is>
       </c>
       <c r="B379" s="1" t="n">
-        <v>45033</v>
+        <v>45798.44768518519</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22526,7 +22531,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -22563,14 +22568,14 @@
     <row r="380" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
-          <t>A 6322-2024</t>
+          <t>A 24731-2025</t>
         </is>
       </c>
       <c r="B380" s="1" t="n">
-        <v>45338.41071759259</v>
+        <v>45799.34209490741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22583,7 +22588,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -22620,14 +22625,14 @@
     <row r="381" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
-          <t>A 60382-2023</t>
+          <t>A 25095-2025</t>
         </is>
       </c>
       <c r="B381" s="1" t="n">
-        <v>45259</v>
+        <v>45800.33721064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22640,7 +22645,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -22677,14 +22682,14 @@
     <row r="382" ht="15" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
-          <t>A 12533-2025</t>
+          <t>A 24751-2025</t>
         </is>
       </c>
       <c r="B382" s="1" t="n">
-        <v>45730.69164351852</v>
+        <v>45799.35922453704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22697,7 +22702,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -22734,14 +22739,14 @@
     <row r="383" ht="15" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
-          <t>A 15077-2025</t>
+          <t>A 25890-2025</t>
         </is>
       </c>
       <c r="B383" s="1" t="n">
-        <v>45743.81966435185</v>
+        <v>45804.53324074074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22754,7 +22759,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -22791,14 +22796,14 @@
     <row r="384" ht="15" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
-          <t>A 14014-2025</t>
+          <t>A 26292-2025</t>
         </is>
       </c>
       <c r="B384" s="1" t="n">
-        <v>45740.3164699074</v>
+        <v>45805.63157407408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22811,7 +22816,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -22848,14 +22853,14 @@
     <row r="385" ht="15" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
-          <t>A 9285-2025</t>
+          <t>A 50009-2024</t>
         </is>
       </c>
       <c r="B385" s="1" t="n">
-        <v>45714.64899305555</v>
+        <v>45598</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22868,7 +22873,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -22905,14 +22910,14 @@
     <row r="386" ht="15" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
-          <t>A 17911-2024</t>
+          <t>A 4207-2024</t>
         </is>
       </c>
       <c r="B386" s="1" t="n">
-        <v>45419.51291666667</v>
+        <v>45324.37259259259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22924,13 +22929,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -22964,17 +22964,17 @@
       </c>
       <c r="R386" s="2" t="inlineStr"/>
     </row>
-    <row r="387" ht="15" customHeight="1">
+    <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>A 23936-2025</t>
+          <t>A 27054-2025</t>
         </is>
       </c>
       <c r="B387" s="1" t="n">
-        <v>45795.82481481481</v>
+        <v>45811.62824074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -23020,63 +23020,6 @@
         <v>0</v>
       </c>
       <c r="R387" s="2" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>A 24082-2025</t>
-        </is>
-      </c>
-      <c r="B388" s="1" t="n">
-        <v>45796.55890046297</v>
-      </c>
-      <c r="C388" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>FÄRGELANDA</t>
-        </is>
-      </c>
-      <c r="G388" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="n">
-        <v>0</v>
-      </c>
-      <c r="K388" t="n">
-        <v>0</v>
-      </c>
-      <c r="L388" t="n">
-        <v>0</v>
-      </c>
-      <c r="M388" t="n">
-        <v>0</v>
-      </c>
-      <c r="N388" t="n">
-        <v>0</v>
-      </c>
-      <c r="O388" t="n">
-        <v>0</v>
-      </c>
-      <c r="P388" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q388" t="n">
-        <v>0</v>
-      </c>
-      <c r="R388" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z386"/>
+  <dimension ref="A1:Z390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44293</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,14 +1916,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 59021-2021</t>
+          <t>A 33912-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44490</v>
+        <v>44790.63319444445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1973,14 +1973,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33912-2022</t>
+          <t>A 59021-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44790.63319444445</v>
+        <v>44490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44484</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,14 +2429,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 68284-2021</t>
+          <t>A 48039-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44526.68170138889</v>
+        <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48039-2021</t>
+          <t>A 68284-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44449</v>
+        <v>44526.68170138889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44658</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2890,14 +2890,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17452-2021</t>
+          <t>A 478-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44299</v>
+        <v>44566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2947,14 +2947,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 478-2022</t>
+          <t>A 17452-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44566</v>
+        <v>44299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3299,14 +3299,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46851-2021</t>
+          <t>A 48340-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44446</v>
+        <v>44858.56366898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3356,14 +3356,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48340-2022</t>
+          <t>A 46851-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858.56366898148</v>
+        <v>44446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3584,14 +3584,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10629-2021</t>
+          <t>A 16285-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44258</v>
+        <v>44670.50589120371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3603,8 +3603,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3641,14 +3646,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16285-2022</t>
+          <t>A 10629-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44670.50589120371</v>
+        <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3660,13 +3665,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>44518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3874,14 +3874,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59062-2021</t>
+          <t>A 29188-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44490.37527777778</v>
+        <v>44750</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29188-2022</t>
+          <t>A 59062-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44750</v>
+        <v>44490.37527777778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44383</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44465</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4848,14 +4848,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35539-2021</t>
+          <t>A 149-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44385</v>
+        <v>44928.54091435186</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4905,14 +4905,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21547-2022</t>
+          <t>A 14813-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44706.55664351852</v>
+        <v>45014.64974537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,8 +4924,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4969,7 +4974,7 @@
         <v>44706</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5019,14 +5024,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 149-2023</t>
+          <t>A 35539-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44928.54091435186</v>
+        <v>44385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5044,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5076,14 +5081,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26108-2023</t>
+          <t>A 21547-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45091</v>
+        <v>44706.55664351852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5101,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5133,14 +5138,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57868-2022</t>
+          <t>A 26108-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44899.66722222222</v>
+        <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5158,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5190,14 +5195,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12710-2024</t>
+          <t>A 57868-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45384.46582175926</v>
+        <v>44899.66722222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5215,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5247,14 +5252,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14813-2023</t>
+          <t>A 16828-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45014.64974537037</v>
+        <v>45033</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5266,13 +5271,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19389-2023</t>
+          <t>A 6322-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45049</v>
+        <v>45338.41071759259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6180-2022</t>
+          <t>A 19389-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44600</v>
+        <v>45049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4525-2025</t>
+          <t>A 12710-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45687.22067129629</v>
+        <v>45384.46582175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12198-2023</t>
+          <t>A 6180-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44998.57171296296</v>
+        <v>44600</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>45259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5708,14 +5708,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14014-2025</t>
+          <t>A 4525-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45740.3164699074</v>
+        <v>45687.22067129629</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56918-2023</t>
+          <t>A 12198-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45244.58456018518</v>
+        <v>44998.57171296296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61642-2022</t>
+          <t>A 9308-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44916</v>
+        <v>45714.6790625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9285-2025</t>
+          <t>A 17488-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45714.64899305555</v>
+        <v>45757.50461805556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14018-2025</t>
+          <t>A 14014-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740.319375</v>
+        <v>45740.3164699074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17911-2024</t>
+          <t>A 9285-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45419.51291666667</v>
+        <v>45714.64899305555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6012,13 +6012,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6055,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9308-2025</t>
+          <t>A 17911-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45714.6790625</v>
+        <v>45419.51291666667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6074,8 +6069,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17488-2025</t>
+          <t>A 53047-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45757.50461805556</v>
+        <v>45611.45182870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6169,14 +6169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23936-2025</t>
+          <t>A 22017-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45795.82481481481</v>
+        <v>45784.78842592592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6226,14 +6226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53047-2024</t>
+          <t>A 56715-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45611.45182870371</v>
+        <v>45975</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6245,8 +6245,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6283,14 +6288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24082-2025</t>
+          <t>A 32608-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45796.55890046297</v>
+        <v>45838</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8594-2024</t>
+          <t>A 56716-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45355.64226851852</v>
+        <v>45975</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,8 +6364,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>12.4</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24731-2025</t>
+          <t>A 9280-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45799.34209490741</v>
+        <v>45714.64130787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6427,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22017-2025</t>
+          <t>A 39630-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45784.78842592592</v>
+        <v>45890.58836805556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6484,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32608-2025</t>
+          <t>A 56918-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45838</v>
+        <v>45244.58456018518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6541,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9280-2025</t>
+          <t>A 61642-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45714.64130787037</v>
+        <v>44916</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6598,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8574-2024</t>
+          <t>A 23936-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45355</v>
+        <v>45795.82481481481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17640-2025</t>
+          <t>A 60456-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45758.32174768519</v>
+        <v>45643.60787037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>16.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39630-2025</t>
+          <t>A 24082-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45890.58836805556</v>
+        <v>45796.55890046297</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6759,7 +6769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6796,14 +6806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45833-2022</t>
+          <t>A 24731-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44846.49806712963</v>
+        <v>45799.34209490741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6853,14 +6863,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24751-2025</t>
+          <t>A 14018-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45799.35922453704</v>
+        <v>45740.319375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6910,14 +6920,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24548-2025</t>
+          <t>A 40420-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45798.44768518519</v>
+        <v>45895.58357638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6940,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6967,14 +6977,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60456-2024</t>
+          <t>A 40213-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45643.60787037037</v>
+        <v>45894.68621527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6997,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>16.9</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7024,14 +7034,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40420-2025</t>
+          <t>A 40226-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45895.58357638889</v>
+        <v>45894.70033564815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7054,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7081,14 +7091,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40213-2025</t>
+          <t>A 8574-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45894.68621527778</v>
+        <v>45355</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7111,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7138,14 +7148,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40226-2025</t>
+          <t>A 56699-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45894.70033564815</v>
+        <v>45977.20575231482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7168,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7195,14 +7205,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25095-2025</t>
+          <t>A 56927-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45800.33721064815</v>
+        <v>45978.60552083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7225,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7252,14 +7262,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46037-2023</t>
+          <t>A 40221-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45196</v>
+        <v>45894.69376157408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7282,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7309,14 +7319,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22722-2023</t>
+          <t>A 40222-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45071.85158564815</v>
+        <v>45894.69791666666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7339,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7366,14 +7376,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40221-2025</t>
+          <t>A 24751-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45894.69376157408</v>
+        <v>45799.35922453704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7396,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7423,14 +7433,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40222-2025</t>
+          <t>A 24548-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45894.69791666666</v>
+        <v>45798.44768518519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7453,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7480,14 +7490,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26292-2025</t>
+          <t>A 8594-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45805.63157407408</v>
+        <v>45355.64226851852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7510,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>12.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7537,14 +7547,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25890-2025</t>
+          <t>A 25095-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45804.53324074074</v>
+        <v>45800.33721064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7567,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7594,14 +7604,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48850-2023</t>
+          <t>A 17640-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45209</v>
+        <v>45758.32174768519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7624,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7651,14 +7661,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27054-2025</t>
+          <t>A 45833-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45811.62824074074</v>
+        <v>44846.49806712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7681,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7708,14 +7718,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29399-2023</t>
+          <t>A 27941-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45106.4499074074</v>
+        <v>45098.66324074074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7738,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7765,14 +7775,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50009-2024</t>
+          <t>A 26292-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45598</v>
+        <v>45805.63157407408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7795,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7822,14 +7832,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5436-2022</t>
+          <t>A 25890-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44595</v>
+        <v>45804.53324074074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7852,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7879,14 +7889,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15046-2024</t>
+          <t>A 46037-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45399</v>
+        <v>45196</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7909,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7936,14 +7946,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27941-2023</t>
+          <t>A 22722-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45098.66324074074</v>
+        <v>45071.85158564815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7966,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7993,14 +8003,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58330-2021</t>
+          <t>A 42310-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44488</v>
+        <v>45904.65412037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8013,7 +8023,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8050,14 +8060,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4207-2024</t>
+          <t>A 27054-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45324.37259259259</v>
+        <v>45811.62824074074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8070,7 +8080,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8107,14 +8117,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49825-2023</t>
+          <t>A 42329-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45212</v>
+        <v>45904.68760416667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8127,7 +8137,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8164,14 +8174,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27755-2025</t>
+          <t>A 50009-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45815.76396990741</v>
+        <v>45598</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8184,7 +8194,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8221,14 +8231,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5515-2025</t>
+          <t>A 48850-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45693.40458333334</v>
+        <v>45209</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8241,7 +8251,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8278,14 +8288,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42310-2025</t>
+          <t>A 42257-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45904.65412037037</v>
+        <v>45904.59019675926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8298,7 +8308,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8335,14 +8345,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62405-2025</t>
+          <t>A 29399-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46007.42645833334</v>
+        <v>45106.4499074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8355,7 +8365,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8392,14 +8402,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62435-2025</t>
+          <t>A 51079-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46007.4637962963</v>
+        <v>45603.45733796297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8412,7 +8422,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8449,14 +8459,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 42329-2025</t>
+          <t>A 42893-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45904.68760416667</v>
+        <v>45908.6643287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8469,7 +8479,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8506,14 +8516,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42257-2025</t>
+          <t>A 5436-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45904.59019675926</v>
+        <v>44595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8526,7 +8536,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>11.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8563,14 +8573,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50454-2021</t>
+          <t>A 15046-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44459.52819444444</v>
+        <v>45399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8583,7 +8593,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8620,14 +8630,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24528-2021</t>
+          <t>A 58330-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44338.52836805556</v>
+        <v>44488</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8640,7 +8650,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8677,14 +8687,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51079-2024</t>
+          <t>A 4207-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45603.45733796297</v>
+        <v>45324.37259259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8697,7 +8707,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8734,14 +8744,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42893-2025</t>
+          <t>A 27755-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45908.6643287037</v>
+        <v>45815.76396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8754,7 +8764,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8791,14 +8801,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3657-2024</t>
+          <t>A 49825-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45321.3408449074</v>
+        <v>45212</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8811,7 +8821,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8848,14 +8858,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62223-2025</t>
+          <t>A 5515-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46006.58538194445</v>
+        <v>45693.40458333334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8868,7 +8878,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8905,14 +8915,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8223-2024</t>
+          <t>A 44127-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45351.89471064815</v>
+        <v>45915.58274305556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8935,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8962,14 +8972,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8224-2024</t>
+          <t>A 44552-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45351.89734953704</v>
+        <v>45917.33799768519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8982,7 +8992,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9019,14 +9029,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62426-2025</t>
+          <t>A 50454-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46007.45054398148</v>
+        <v>44459.52819444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9039,7 +9049,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9076,14 +9086,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62254-2025</t>
+          <t>A 24528-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46006.61049768519</v>
+        <v>44338.52836805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9096,7 +9106,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9133,14 +9143,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2301-2022</t>
+          <t>A 44990-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44578</v>
+        <v>45918.65589120371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9153,7 +9163,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9190,14 +9200,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8257-2023</t>
+          <t>A 3657-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44974</v>
+        <v>45321.3408449074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9210,7 +9220,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9247,14 +9257,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44127-2025</t>
+          <t>A 8223-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45915.58274305556</v>
+        <v>45351.89471064815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9277,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9304,14 +9314,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30141-2025</t>
+          <t>A 8224-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45826.91336805555</v>
+        <v>45351.89734953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9324,7 +9334,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9361,14 +9371,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61698-2021</t>
+          <t>A 45669-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44501</v>
+        <v>45923.35321759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9381,7 +9391,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9418,14 +9428,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30143-2025</t>
+          <t>A 2301-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45826.92831018518</v>
+        <v>44578</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9475,14 +9485,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44552-2025</t>
+          <t>A 8257-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45917.33799768519</v>
+        <v>44974</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9495,7 +9505,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9532,14 +9542,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53906-2021</t>
+          <t>A 30141-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44469</v>
+        <v>45826.91336805555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9552,7 +9562,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>20.8</v>
+        <v>6.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9589,14 +9599,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30737-2025</t>
+          <t>A 61698-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45831</v>
+        <v>44501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9609,7 +9619,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9646,14 +9656,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 31146-2025</t>
+          <t>A 30143-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45832.63880787037</v>
+        <v>45826.92831018518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9676,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9703,14 +9713,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31158-2025</t>
+          <t>A 53906-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45832.65253472222</v>
+        <v>44469</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9733,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>12.3</v>
+        <v>20.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9760,14 +9770,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 30994-2025</t>
+          <t>A 30737-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45832.4885300926</v>
+        <v>45831</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9780,7 +9790,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9817,14 +9827,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32225-2025</t>
+          <t>A 31146-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45835.59469907408</v>
+        <v>45832.63880787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9837,7 +9847,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9874,14 +9884,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44990-2025</t>
+          <t>A 31158-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45918.65589120371</v>
+        <v>45832.65253472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9894,7 +9904,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.3</v>
+        <v>12.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9931,14 +9941,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4646-2025</t>
+          <t>A 30994-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45687.65769675926</v>
+        <v>45832.4885300926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9951,7 +9961,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9988,14 +9998,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31996-2025</t>
+          <t>A 4646-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45835.37305555555</v>
+        <v>45687.65769675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10008,7 +10018,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10045,14 +10055,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45669-2025</t>
+          <t>A 32225-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45923.35321759259</v>
+        <v>45835.59469907408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10065,7 +10075,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10102,14 +10112,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6206-2026</t>
+          <t>A 31996-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46055.42060185185</v>
+        <v>45835.37305555555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10122,7 +10132,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10159,14 +10169,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 31984-2025</t>
+          <t>A 48948-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45835.36079861111</v>
+        <v>44453</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10179,7 +10189,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10216,14 +10226,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32013-2025</t>
+          <t>A 48087-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45835.40056712963</v>
+        <v>45932.83972222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10236,7 +10246,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10273,14 +10283,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32800-2025</t>
+          <t>A 72612-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45839.49458333333</v>
+        <v>44546.51971064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10293,7 +10303,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10330,14 +10340,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32785-2025</t>
+          <t>A 31984-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45839.48150462963</v>
+        <v>45835.36079861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10350,7 +10360,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10387,14 +10397,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 72612-2021</t>
+          <t>A 32013-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44546.51971064815</v>
+        <v>45835.40056712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10407,7 +10417,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10444,14 +10454,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32787-2025</t>
+          <t>A 32800-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45839.48538194445</v>
+        <v>45839.49458333333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10464,7 +10474,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10501,14 +10511,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6194-2026</t>
+          <t>A 57446-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46055.39263888889</v>
+        <v>44896.54659722222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10521,7 +10531,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10558,14 +10568,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 32789-2025</t>
+          <t>A 32785-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45839.48761574074</v>
+        <v>45839.48150462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10578,7 +10588,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>20.6</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10615,14 +10625,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 32799-2025</t>
+          <t>A 42402-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45839.49334490741</v>
+        <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10635,7 +10645,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10672,14 +10682,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32803-2025</t>
+          <t>A 48479-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45839.49835648148</v>
+        <v>45936.35118055555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10691,8 +10701,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10729,14 +10744,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 42402-2023</t>
+          <t>A 32787-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45180</v>
+        <v>45839.48538194445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10764,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10786,14 +10801,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60766-2023</t>
+          <t>A 48483-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45260.61935185185</v>
+        <v>45936.35569444444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10805,8 +10820,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10843,14 +10863,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 64390-2023</t>
+          <t>A 32789-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45280.59041666667</v>
+        <v>45839.48761574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10863,7 +10883,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.4</v>
+        <v>20.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10900,14 +10920,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4168-2026</t>
+          <t>A 32799-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46044</v>
+        <v>45839.49334490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10920,7 +10940,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.7</v>
+        <v>11.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10957,14 +10977,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2117-2022</t>
+          <t>A 32803-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44578.30037037037</v>
+        <v>45839.49835648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10977,7 +10997,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11014,14 +11034,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1997-2023</t>
+          <t>A 60766-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44939</v>
+        <v>45260.61935185185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11034,7 +11054,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11071,14 +11091,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 66955-2021</t>
+          <t>A 64390-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44522.5925462963</v>
+        <v>45280.59041666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11091,7 +11111,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11128,14 +11148,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34379-2025</t>
+          <t>A 2117-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45846.54078703704</v>
+        <v>44578.30037037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11148,7 +11168,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11185,14 +11205,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48948-2021</t>
+          <t>A 49069-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44453</v>
+        <v>45937.64949074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,7 +11225,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11242,14 +11262,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 48087-2025</t>
+          <t>A 1997-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45932.83972222222</v>
+        <v>44939</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11262,7 +11282,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11299,14 +11319,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15043-2023</t>
+          <t>A 49097-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45015</v>
+        <v>45937.6962037037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11319,7 +11339,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11356,14 +11376,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57446-2022</t>
+          <t>A 66955-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44896.54659722222</v>
+        <v>44522.5925462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11376,7 +11396,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11413,14 +11433,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48479-2025</t>
+          <t>A 34379-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45936.35118055555</v>
+        <v>45846.54078703704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11432,13 +11452,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11475,14 +11490,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48483-2025</t>
+          <t>A 15043-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45936.35569444444</v>
+        <v>45015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11494,13 +11509,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11537,14 +11547,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1030-2022</t>
+          <t>A 58869-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44571</v>
+        <v>45987.45971064815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11557,7 +11567,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11594,14 +11604,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57991-2023</t>
+          <t>A 50876-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45247.6030787037</v>
+        <v>45946.61502314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11614,7 +11624,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11651,14 +11661,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49069-2025</t>
+          <t>A 1030-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45937.64949074074</v>
+        <v>44571</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11671,7 +11681,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11708,14 +11718,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19332-2023</t>
+          <t>A 57991-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45049</v>
+        <v>45247.6030787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11728,7 +11738,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11765,14 +11775,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5962-2026</t>
+          <t>A 50883-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46052.50849537037</v>
+        <v>45946.63247685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11785,7 +11795,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11822,14 +11832,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 28530-2024</t>
+          <t>A 19332-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45478.32665509259</v>
+        <v>45049</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11842,7 +11852,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11879,14 +11889,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 46040-2021</t>
+          <t>A 51271-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44441</v>
+        <v>45949.84736111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11909,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11936,14 +11946,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49097-2025</t>
+          <t>A 28530-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45937.6962037037</v>
+        <v>45478.32665509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11966,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11993,14 +12003,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53584-2024</t>
+          <t>A 51468-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45614.66459490741</v>
+        <v>45950.6122800926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12023,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12050,14 +12060,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36387-2025</t>
+          <t>A 51476-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45868.59709490741</v>
+        <v>45950.61899305556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12080,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12107,14 +12117,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36390-2025</t>
+          <t>A 46040-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45868.60686342593</v>
+        <v>44441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12137,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>14.1</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12164,14 +12174,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36392-2025</t>
+          <t>A 51483-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45868.61020833333</v>
+        <v>45950.6207175926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12194,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12221,14 +12231,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17610-2023</t>
+          <t>A 59318-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45036</v>
+        <v>45989.3315162037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12251,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12278,14 +12288,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6210-2026</t>
+          <t>A 53584-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46055.42400462963</v>
+        <v>45614.66459490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12308,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12335,14 +12345,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 37136-2024</t>
+          <t>A 17610-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45539.580625</v>
+        <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12365,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12392,14 +12402,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37067-2025</t>
+          <t>A 52567-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45875</v>
+        <v>45954.59641203703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12422,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12449,14 +12459,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50876-2025</t>
+          <t>A 37136-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45946.61502314815</v>
+        <v>45539.580625</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12479,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12506,14 +12516,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50883-2025</t>
+          <t>A 52725-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45946.63247685185</v>
+        <v>45957.34657407407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12536,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12563,14 +12573,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 17486-2025</t>
+          <t>A 52584-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45757.50133101852</v>
+        <v>45954.6255787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12593,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12620,14 +12630,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51271-2025</t>
+          <t>A 36387-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45949.84736111111</v>
+        <v>45868.59709490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12650,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>10.1</v>
+        <v>7.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12677,14 +12687,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51468-2025</t>
+          <t>A 36390-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45950.6122800926</v>
+        <v>45868.60686342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12707,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>14.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12734,14 +12744,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51476-2025</t>
+          <t>A 36392-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45950.61899305556</v>
+        <v>45868.61020833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12764,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12791,14 +12801,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51483-2025</t>
+          <t>A 53276-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45950.6207175926</v>
+        <v>45958.75099537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12821,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12855,7 +12865,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12912,7 +12922,7 @@
         <v>44935</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12962,14 +12972,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38366-2025</t>
+          <t>A 46534-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45883.55109953704</v>
+        <v>45582.64283564815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12992,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13019,14 +13029,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38363-2025</t>
+          <t>A 54405-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45883.54059027778</v>
+        <v>45965</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13039,7 +13049,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13076,14 +13086,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 46534-2024</t>
+          <t>A 64427-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45582.64283564815</v>
+        <v>45280.66630787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13096,7 +13106,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13133,14 +13143,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52567-2025</t>
+          <t>A 54260-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45954.59641203703</v>
+        <v>45964.6600462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13153,7 +13163,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13190,14 +13200,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52725-2025</t>
+          <t>A 59441-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45957.34657407407</v>
+        <v>45638.4434837963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13210,7 +13220,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13247,14 +13257,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52584-2025</t>
+          <t>A 37067-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45954.6255787037</v>
+        <v>45875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13267,7 +13277,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13304,14 +13314,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 64427-2023</t>
+          <t>A 54410-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45280.66630787037</v>
+        <v>45965</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13324,7 +13334,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13361,14 +13371,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 59441-2024</t>
+          <t>A 54401-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45638.4434837963</v>
+        <v>45965</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13381,7 +13391,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13418,14 +13428,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7075-2026</t>
+          <t>A 54535-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46058.32744212963</v>
+        <v>45965.64016203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13437,13 +13447,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>4.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13480,14 +13485,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53276-2025</t>
+          <t>A 24791-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45958.75099537037</v>
+        <v>45084</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13505,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13537,14 +13542,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7230-2026</t>
+          <t>A 17486-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46058.57175925926</v>
+        <v>45757.50133101852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13556,13 +13561,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13599,14 +13599,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17487-2025</t>
+          <t>A 68285-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45757.50351851852</v>
+        <v>44526.68493055556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13656,14 +13656,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24791-2023</t>
+          <t>A 59964-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45084</v>
+        <v>45642.35320601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13713,14 +13713,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 68285-2021</t>
+          <t>A 55299-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44526.68493055556</v>
+        <v>45969.80375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13770,14 +13770,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54405-2025</t>
+          <t>A 55300-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45965</v>
+        <v>45969.81296296296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13827,14 +13827,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 54260-2025</t>
+          <t>A 55087-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45964.6600462963</v>
+        <v>45968.33152777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13884,14 +13884,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 59964-2024</t>
+          <t>A 59022-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45642.35320601852</v>
+        <v>45252</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13941,14 +13941,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54410-2025</t>
+          <t>A 59025-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45965</v>
+        <v>45252</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>44.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13998,14 +13998,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54401-2025</t>
+          <t>A 38366-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45965</v>
+        <v>45883.55109953704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14055,14 +14055,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 54535-2025</t>
+          <t>A 38363-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45965.64016203704</v>
+        <v>45883.54059027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14112,14 +14112,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 59022-2023</t>
+          <t>A 34241-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45252</v>
+        <v>45524.57997685186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14169,14 +14169,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 59025-2023</t>
+          <t>A 63761-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45252</v>
+        <v>45278</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>44.5</v>
+        <v>6.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14226,14 +14226,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 7909-2026</t>
+          <t>A 63762-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46063.36493055556</v>
+        <v>45278</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14283,14 +14283,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 34241-2024</t>
+          <t>A 54038-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45524.57997685186</v>
+        <v>44470</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14340,14 +14340,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 63761-2023</t>
+          <t>A 11370-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45278</v>
+        <v>44263</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14359,8 +14359,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14397,14 +14402,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 63762-2023</t>
+          <t>A 18635-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45278</v>
+        <v>45763.55327546296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14417,7 +14422,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14454,14 +14459,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54038-2021</t>
+          <t>A 27841-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44470</v>
+        <v>45098.55013888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14474,7 +14479,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14511,14 +14516,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 11370-2021</t>
+          <t>A 53196-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44263</v>
+        <v>45958</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14530,13 +14535,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14573,14 +14573,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 18635-2025</t>
+          <t>A 1610-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45763.55327546296</v>
+        <v>46034.46892361111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14630,14 +14630,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55299-2025</t>
+          <t>A 30406-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45969.80375</v>
+        <v>45491.59671296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14687,14 +14687,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 55300-2025</t>
+          <t>A 9736-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45969.81296296296</v>
+        <v>45362</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14744,14 +14744,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55087-2025</t>
+          <t>A 2382-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45968.33152777778</v>
+        <v>46036.66548611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14801,14 +14801,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 27841-2023</t>
+          <t>A 17487-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45098.55013888889</v>
+        <v>45757.50351851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14858,14 +14858,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 30406-2024</t>
+          <t>A 2696-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45491.59671296296</v>
+        <v>46037.6750925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14915,14 +14915,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 9736-2024</t>
+          <t>A 62146-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45362</v>
+        <v>45267.37630787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14972,14 +14972,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56715-2025</t>
+          <t>A 36606-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45975</v>
+        <v>45153.48958333334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14991,13 +14991,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15034,14 +15029,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56716-2025</t>
+          <t>A 60244-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45975</v>
+        <v>45994.58803240741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15053,13 +15048,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15096,14 +15086,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 56699-2025</t>
+          <t>A 2948-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45977.20575231482</v>
+        <v>46038.59636574074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15116,7 +15106,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15153,14 +15143,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56927-2025</t>
+          <t>A 3882-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45978.60552083333</v>
+        <v>45684.35550925926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15172,8 +15162,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15210,14 +15205,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 62146-2023</t>
+          <t>A 1944-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45267.37630787037</v>
+        <v>45308</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15230,7 +15225,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15267,14 +15262,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 36606-2023</t>
+          <t>A 46041-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45153.48958333334</v>
+        <v>44441.93865740741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15287,7 +15282,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15324,14 +15319,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 3882-2025</t>
+          <t>A 29014-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45684.35550925926</v>
+        <v>45481.563125</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15343,13 +15338,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15386,14 +15376,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1944-2024</t>
+          <t>A 58868-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45308</v>
+        <v>45987.45644675926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15406,7 +15396,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15443,14 +15433,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 46041-2021</t>
+          <t>A 10263-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44441.93865740741</v>
+        <v>44256</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15463,7 +15453,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15500,14 +15490,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29014-2024</t>
+          <t>A 61431-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45481.563125</v>
+        <v>44916.36677083333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15520,7 +15510,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15557,14 +15547,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9090-2026</t>
+          <t>A 35173-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46069.62664351852</v>
+        <v>45530.42966435185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15577,7 +15567,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15614,14 +15604,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 58869-2025</t>
+          <t>A 18178-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45987.45971064815</v>
+        <v>45761.65679398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15634,7 +15624,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15671,14 +15661,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 59318-2025</t>
+          <t>A 61915-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45989.3315162037</v>
+        <v>44917.7606712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15691,7 +15681,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15728,14 +15718,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 10263-2021</t>
+          <t>A 43684-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44256</v>
+        <v>44837.62194444444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15748,7 +15738,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15785,14 +15775,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61431-2022</t>
+          <t>A 14015-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44916.36677083333</v>
+        <v>45740.31795138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15805,7 +15795,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15842,14 +15832,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 8920-2026</t>
+          <t>A 23222-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46069.33019675926</v>
+        <v>45452.86884259259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15861,13 +15851,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15904,14 +15889,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35173-2024</t>
+          <t>A 59960-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45530.42966435185</v>
+        <v>45642</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15924,7 +15909,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15961,14 +15946,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 18178-2025</t>
+          <t>A 60475-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45761.65679398148</v>
+        <v>45643.63023148148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15981,7 +15966,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16018,14 +16003,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61915-2022</t>
+          <t>A 12507-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44917.7606712963</v>
+        <v>45730.63413194445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16038,7 +16023,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16075,14 +16060,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 43684-2022</t>
+          <t>A 30993-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44837.62194444444</v>
+        <v>44768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16095,7 +16080,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16132,14 +16117,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8675-2026</t>
+          <t>A 62405-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46066.4065162037</v>
+        <v>46007.42645833334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16151,13 +16136,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16194,14 +16174,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 14015-2025</t>
+          <t>A 62435-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45740.31795138889</v>
+        <v>46007.4637962963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16194,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16251,14 +16231,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23222-2024</t>
+          <t>A 18175-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45452.86884259259</v>
+        <v>45761.65313657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16271,7 +16251,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.8</v>
+        <v>20.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16308,14 +16288,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 59960-2024</t>
+          <t>A 28702-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45642</v>
+        <v>45478.5044212963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16328,7 +16308,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16365,14 +16345,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 60475-2024</t>
+          <t>A 62223-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45643.63023148148</v>
+        <v>46006.58538194445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16385,7 +16365,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16422,14 +16402,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 12507-2025</t>
+          <t>A 62426-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45730.63413194445</v>
+        <v>46007.45054398148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16442,7 +16422,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16479,14 +16459,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30993-2022</t>
+          <t>A 62254-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44768</v>
+        <v>46006.61049768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16499,7 +16479,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16536,14 +16516,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 53196-2025</t>
+          <t>A 13960-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45958</v>
+        <v>45392</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16556,7 +16536,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16593,14 +16573,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1610-2026</t>
+          <t>A 46-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46034.46892361111</v>
+        <v>45293.56115740741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16613,7 +16593,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16650,14 +16630,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 18175-2025</t>
+          <t>A 12460-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45761.65313657407</v>
+        <v>44638</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16670,7 +16650,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>20.5</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16707,14 +16687,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 28702-2024</t>
+          <t>A 5506-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45478.5044212963</v>
+        <v>45693.39181712963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16727,7 +16707,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16764,14 +16744,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2382-2026</t>
+          <t>A 6206-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46036.66548611111</v>
+        <v>46055.42060185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16784,7 +16764,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16821,14 +16801,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2696-2026</t>
+          <t>A 6194-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46037.6750925926</v>
+        <v>46055.39263888889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16841,7 +16821,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16878,14 +16858,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 60244-2025</t>
+          <t>A 4168-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45994.58803240741</v>
+        <v>46044</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16898,7 +16878,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16935,14 +16915,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 2948-2026</t>
+          <t>A 5962-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46038.59636574074</v>
+        <v>46052.50849537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16955,7 +16935,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16992,14 +16972,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 13960-2024</t>
+          <t>A 44398-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45392</v>
+        <v>45573.7003125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17012,7 +16992,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17049,14 +17029,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 46-2024</t>
+          <t>A 6210-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45293.56115740741</v>
+        <v>46055.42400462963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17069,7 +17049,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17106,14 +17086,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 12460-2022</t>
+          <t>A 58324-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44638</v>
+        <v>44901</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17126,7 +17106,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17163,14 +17143,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 5506-2025</t>
+          <t>A 7075-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45693.39181712963</v>
+        <v>46058.32744212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17182,8 +17162,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17220,14 +17205,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 58868-2025</t>
+          <t>A 7230-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45987.45644675926</v>
+        <v>46058.57175925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17239,8 +17224,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17277,14 +17267,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 44398-2024</t>
+          <t>A 22719-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45573.7003125</v>
+        <v>45071</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17297,7 +17287,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17334,14 +17324,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 58324-2022</t>
+          <t>A 7909-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44901</v>
+        <v>46063.36493055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17354,7 +17344,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17391,14 +17381,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 22719-2023</t>
+          <t>A 58317-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45071</v>
+        <v>44488.35737268518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17411,7 +17401,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17448,14 +17438,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 58317-2021</t>
+          <t>A 29770-2021</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44488.35737268518</v>
+        <v>44362</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17468,7 +17458,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17505,14 +17495,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 29770-2021</t>
+          <t>A 4672-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44362</v>
+        <v>45687.79815972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17525,7 +17515,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17562,14 +17552,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 4672-2025</t>
+          <t>A 18003-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45687.79815972222</v>
+        <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17582,7 +17572,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.2</v>
+        <v>18.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17619,14 +17609,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 18003-2023</t>
+          <t>A 18188-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45040</v>
+        <v>45420.6553587963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17639,7 +17629,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>18.5</v>
+        <v>1.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17676,14 +17666,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 18188-2024</t>
+          <t>A 24075-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45420.6553587963</v>
+        <v>45078</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17696,7 +17686,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17733,14 +17723,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 24075-2023</t>
+          <t>A 18538-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45078</v>
+        <v>44686.85798611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17753,7 +17743,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17790,14 +17780,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 18538-2022</t>
+          <t>A 5032-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44686.85798611111</v>
+        <v>44958.57836805555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17810,7 +17800,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17847,14 +17837,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 5032-2023</t>
+          <t>A 60321-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44958.57836805555</v>
+        <v>45643.37196759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17867,7 +17857,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17904,14 +17894,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 60321-2024</t>
+          <t>A 9090-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45643.37196759259</v>
+        <v>46069.62664351852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17924,7 +17914,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17968,7 +17958,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18025,7 +18015,7 @@
         <v>45034</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18082,7 +18072,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18132,14 +18122,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 24936-2021</t>
+          <t>A 8675-2026</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44341.44221064815</v>
+        <v>46066.4065162037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18151,8 +18141,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18189,14 +18184,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 35098-2023</t>
+          <t>A 24936-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45145.45490740741</v>
+        <v>44341.44221064815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18209,7 +18204,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18246,14 +18241,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 8819-2025</t>
+          <t>A 35098-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45712.75179398148</v>
+        <v>45145.45490740741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18266,7 +18261,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18303,14 +18298,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 7387-2025</t>
+          <t>A 9418-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45705.33028935185</v>
+        <v>46071.43393518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18323,7 +18318,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18360,14 +18355,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 20359-2025</t>
+          <t>A 8920-2026</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45775.39707175926</v>
+        <v>46069.33019675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18379,8 +18374,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18417,14 +18417,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 18842-2025</t>
+          <t>A 9451-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45764.40886574074</v>
+        <v>46071.48033564815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18474,14 +18474,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 49826-2024</t>
+          <t>A 8819-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45597.40923611111</v>
+        <v>45712.75179398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18531,14 +18531,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 44796-2022</t>
+          <t>A 7387-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44841</v>
+        <v>45705.33028935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18588,14 +18588,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 57869-2022</t>
+          <t>A 9441-2026</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44899.67410879629</v>
+        <v>46071.4659375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.6</v>
+        <v>10.1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18645,14 +18645,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 50046-2023</t>
+          <t>A 9450-2026</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45215</v>
+        <v>46071.4775</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18702,14 +18702,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 26883-2024</t>
+          <t>A 20359-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45470.63859953704</v>
+        <v>45775.39707175926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18759,14 +18759,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 51434-2022</t>
+          <t>A 18842-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44869.47741898148</v>
+        <v>45764.40886574074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18816,14 +18816,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 60468-2024</t>
+          <t>A 49826-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45643.62467592592</v>
+        <v>45597.40923611111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18873,14 +18873,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 45268-2021</t>
+          <t>A 44796-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44439</v>
+        <v>44841</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18930,14 +18930,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 35845-2024</t>
+          <t>A 57869-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45532.77804398148</v>
+        <v>44899.67410879629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18987,14 +18987,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 47461-2023</t>
+          <t>A 50046-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45202.85652777777</v>
+        <v>45215</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19044,14 +19044,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 21311-2023</t>
+          <t>A 26883-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45062</v>
+        <v>45470.63859953704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19101,14 +19101,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 56619-2022</t>
+          <t>A 51434-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44893.59541666666</v>
+        <v>44869.47741898148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19158,14 +19158,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13673-2025</t>
+          <t>A 60468-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45736.8941087963</v>
+        <v>45643.62467592592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19215,14 +19215,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 34433-2023</t>
+          <t>A 45268-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45139</v>
+        <v>44439</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19272,14 +19272,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 20036-2021</t>
+          <t>A 35845-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44314.33216435185</v>
+        <v>45532.77804398148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19329,14 +19329,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 25826-2024</t>
+          <t>A 47461-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45467.40405092593</v>
+        <v>45202.85652777777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19386,14 +19386,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 54698-2022</t>
+          <t>A 21311-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44883.50241898148</v>
+        <v>45062</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19443,14 +19443,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 8450-2023</t>
+          <t>A 56619-2022</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44977</v>
+        <v>44893.59541666666</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19500,14 +19500,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 4285-2025</t>
+          <t>A 13673-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45685.64887731482</v>
+        <v>45736.8941087963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19557,14 +19557,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 37783-2023</t>
+          <t>A 34433-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45159</v>
+        <v>45139</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.5</v>
+        <v>9.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19614,14 +19614,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 45710-2024</t>
+          <t>A 20036-2021</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45579.58155092593</v>
+        <v>44314.33216435185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19671,14 +19671,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 51019-2023</t>
+          <t>A 25826-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45218.5928587963</v>
+        <v>45467.40405092593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19728,14 +19728,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 55840-2023</t>
+          <t>A 54698-2022</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45239</v>
+        <v>44883.50241898148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19785,14 +19785,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 71963-2021</t>
+          <t>A 8450-2023</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44544.32019675926</v>
+        <v>44977</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19842,14 +19842,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 4838-2022</t>
+          <t>A 4285-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44592</v>
+        <v>45685.64887731482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19899,14 +19899,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 39962-2023</t>
+          <t>A 37783-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45168</v>
+        <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19956,14 +19956,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 37898-2022</t>
+          <t>A 45710-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44811.40451388889</v>
+        <v>45579.58155092593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20013,14 +20013,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 61914-2022</t>
+          <t>A 51019-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44917.75925925926</v>
+        <v>45218.5928587963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20070,14 +20070,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 60330-2024</t>
+          <t>A 55840-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45643.38454861111</v>
+        <v>45239</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20127,14 +20127,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 19386-2023</t>
+          <t>A 71963-2021</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45049</v>
+        <v>44544.32019675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20184,14 +20184,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 55310-2023</t>
+          <t>A 4838-2022</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45237.89079861111</v>
+        <v>44592</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20241,14 +20241,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 47045-2023</t>
+          <t>A 39962-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45201.55571759259</v>
+        <v>45168</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20298,14 +20298,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 52151-2022</t>
+          <t>A 37898-2022</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44873</v>
+        <v>44811.40451388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20355,14 +20355,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 62643-2023</t>
+          <t>A 61914-2022</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45271.42447916666</v>
+        <v>44917.75925925926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20412,14 +20412,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 35844-2024</t>
+          <t>A 60330-2024</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45532.77702546296</v>
+        <v>45643.38454861111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20469,14 +20469,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 4206-2024</t>
+          <t>A 19386-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45324</v>
+        <v>45049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20526,14 +20526,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 40630-2023</t>
+          <t>A 55310-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45170.54494212963</v>
+        <v>45237.89079861111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20583,14 +20583,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 34715-2023</t>
+          <t>A 47045-2023</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45141</v>
+        <v>45201.55571759259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20640,14 +20640,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 16917-2025</t>
+          <t>A 52151-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45755.36796296296</v>
+        <v>44873</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20697,14 +20697,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 40778-2024</t>
+          <t>A 62643-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45558.49034722222</v>
+        <v>45271.42447916666</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20754,14 +20754,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 7389-2025</t>
+          <t>A 35844-2024</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45705.3318287037</v>
+        <v>45532.77702546296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20811,14 +20811,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 9792-2021</t>
+          <t>A 4206-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44252.68719907408</v>
+        <v>45324</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20868,14 +20868,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 24074-2023</t>
+          <t>A 40630-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45078</v>
+        <v>45170.54494212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20925,14 +20925,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 35761-2021</t>
+          <t>A 34715-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44386.58719907407</v>
+        <v>45141</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20982,14 +20982,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 1678-2025</t>
+          <t>A 16917-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45670.69351851852</v>
+        <v>45755.36796296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21039,14 +21039,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 59020-2023</t>
+          <t>A 40778-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45252</v>
+        <v>45558.49034722222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21096,14 +21096,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 6666-2025</t>
+          <t>A 7389-2025</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45700.46284722222</v>
+        <v>45705.3318287037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21153,14 +21153,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 59023-2023</t>
+          <t>A 9792-2021</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45252</v>
+        <v>44252.68719907408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21210,14 +21210,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 57557-2024</t>
+          <t>A 24074-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45630.45277777778</v>
+        <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21267,14 +21267,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 53559-2022</t>
+          <t>A 35761-2021</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44879</v>
+        <v>44386.58719907407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21324,14 +21324,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 27521-2024</t>
+          <t>A 1678-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45474.55655092592</v>
+        <v>45670.69351851852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21381,14 +21381,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 8185-2023</t>
+          <t>A 59020-2023</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>44974.49958333333</v>
+        <v>45252</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21438,14 +21438,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 8561-2025</t>
+          <t>A 6666-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45709.62383101852</v>
+        <v>45700.46284722222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21495,14 +21495,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 18932-2024</t>
+          <t>A 59023-2023</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45427.43978009259</v>
+        <v>45252</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21552,14 +21552,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 56614-2022</t>
+          <t>A 57557-2024</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>44893.58832175926</v>
+        <v>45630.45277777778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21609,14 +21609,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 18186-2024</t>
+          <t>A 53559-2022</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45420.65344907407</v>
+        <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21666,14 +21666,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 25223-2023</t>
+          <t>A 27521-2024</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45086</v>
+        <v>45474.55655092592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21723,14 +21723,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 47530-2024</t>
+          <t>A 8185-2023</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45587.64105324074</v>
+        <v>44974.49958333333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21780,14 +21780,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 5437-2022</t>
+          <t>A 8561-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>44595.42708333334</v>
+        <v>45709.62383101852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21837,14 +21837,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 72655-2021</t>
+          <t>A 18932-2024</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>44546</v>
+        <v>45427.43978009259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -21894,14 +21894,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 31885-2022</t>
+          <t>A 56614-2022</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>44777.45040509259</v>
+        <v>44893.58832175926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -21951,14 +21951,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 44846-2024</t>
+          <t>A 18186-2024</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45574</v>
+        <v>45420.65344907407</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22008,14 +22008,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 28803-2022</t>
+          <t>A 25223-2023</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>44749.42851851852</v>
+        <v>45086</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22065,14 +22065,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 17456-2024</t>
+          <t>A 47530-2024</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45415.4027199074</v>
+        <v>45587.64105324074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -22122,14 +22122,14 @@
     <row r="372" ht="15" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 57267-2022</t>
+          <t>A 5437-2022</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>44895.90114583333</v>
+        <v>44595.42708333334</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -22179,14 +22179,14 @@
     <row r="373" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>A 62751-2021</t>
+          <t>A 72655-2021</t>
         </is>
       </c>
       <c r="B373" s="1" t="n">
-        <v>44504</v>
+        <v>44546</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -22236,14 +22236,14 @@
     <row r="374" ht="15" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>A 37784-2023</t>
+          <t>A 31885-2022</t>
         </is>
       </c>
       <c r="B374" s="1" t="n">
-        <v>45159.83563657408</v>
+        <v>44777.45040509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -22293,14 +22293,14 @@
     <row r="375" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>A 37787-2023</t>
+          <t>A 44846-2024</t>
         </is>
       </c>
       <c r="B375" s="1" t="n">
-        <v>45159.83638888889</v>
+        <v>45574</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -22350,14 +22350,14 @@
     <row r="376" ht="15" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
-          <t>A 37788-2023</t>
+          <t>A 28803-2022</t>
         </is>
       </c>
       <c r="B376" s="1" t="n">
-        <v>45159.83733796296</v>
+        <v>44749.42851851852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -22407,14 +22407,14 @@
     <row r="377" ht="15" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
-          <t>A 13559-2024</t>
+          <t>A 17456-2024</t>
         </is>
       </c>
       <c r="B377" s="1" t="n">
-        <v>45388.57505787037</v>
+        <v>45415.4027199074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -22464,14 +22464,14 @@
     <row r="378" ht="15" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>A 10381-2022</t>
+          <t>A 57267-2022</t>
         </is>
       </c>
       <c r="B378" s="1" t="n">
-        <v>44623.41340277778</v>
+        <v>44895.90114583333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -22521,14 +22521,14 @@
     <row r="379" ht="15" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
-          <t>A 17129-2023</t>
+          <t>A 62751-2021</t>
         </is>
       </c>
       <c r="B379" s="1" t="n">
-        <v>45034</v>
+        <v>44504</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -22578,14 +22578,14 @@
     <row r="380" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
-          <t>A 22721-2023</t>
+          <t>A 37784-2023</t>
         </is>
       </c>
       <c r="B380" s="1" t="n">
-        <v>45071.83787037037</v>
+        <v>45159.83563657408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -22635,14 +22635,14 @@
     <row r="381" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
-          <t>A 20736-2025</t>
+          <t>A 37787-2023</t>
         </is>
       </c>
       <c r="B381" s="1" t="n">
-        <v>45776.54106481482</v>
+        <v>45159.83638888889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -22692,14 +22692,14 @@
     <row r="382" ht="15" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
-          <t>A 20861-2025</t>
+          <t>A 37788-2023</t>
         </is>
       </c>
       <c r="B382" s="1" t="n">
-        <v>45777.33300925926</v>
+        <v>45159.83733796296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -22749,14 +22749,14 @@
     <row r="383" ht="15" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
-          <t>A 21126-2025</t>
+          <t>A 13559-2024</t>
         </is>
       </c>
       <c r="B383" s="1" t="n">
-        <v>45777.90707175926</v>
+        <v>45388.57505787037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -22806,14 +22806,14 @@
     <row r="384" ht="15" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
-          <t>A 21125-2025</t>
+          <t>A 10381-2022</t>
         </is>
       </c>
       <c r="B384" s="1" t="n">
-        <v>45777.89259259259</v>
+        <v>44623.41340277778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -22863,14 +22863,14 @@
     <row r="385" ht="15" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
-          <t>A 16828-2023</t>
+          <t>A 17129-2023</t>
         </is>
       </c>
       <c r="B385" s="1" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -22917,17 +22917,17 @@
       </c>
       <c r="R385" s="2" t="inlineStr"/>
     </row>
-    <row r="386">
+    <row r="386" ht="15" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
-          <t>A 6322-2024</t>
+          <t>A 22721-2023</t>
         </is>
       </c>
       <c r="B386" s="1" t="n">
-        <v>45338.41071759259</v>
+        <v>45071.83787037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22973,6 +22973,234 @@
         <v>0</v>
       </c>
       <c r="R386" s="2" t="inlineStr"/>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>A 20736-2025</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>45776.54106481482</v>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>FÄRGELANDA</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" s="2" t="inlineStr"/>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>A 20861-2025</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>45777.33300925926</v>
+      </c>
+      <c r="C388" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>FÄRGELANDA</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" s="2" t="inlineStr"/>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>A 21126-2025</t>
+        </is>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>45777.90707175926</v>
+      </c>
+      <c r="C389" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>FÄRGELANDA</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" s="2" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>A 21125-2025</t>
+        </is>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>45777.89259259259</v>
+      </c>
+      <c r="C390" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>FÄRGELANDA</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,14 +1027,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 38771-2024</t>
+          <t>A 60624-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45547.45959490741</v>
+        <v>44911.65568287037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1085,41 +1085,41 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 38771-2024 artfynd.xlsx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 60624-2022 artfynd.xlsx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 38771-2024 karta.png", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 60624-2022 karta.png", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 38771-2024 FSC-klagomål.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 60624-2022 FSC-klagomål.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 38771-2024 FSC-klagomål mail.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 60624-2022 FSC-klagomål mail.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 38771-2024 tillsynsbegäran.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 60624-2022 tillsynsbegäran.docx", "A 60624-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 38771-2024 tillsynsbegäran mail.docx", "A 38771-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 60624-2022 tillsynsbegäran mail.docx", "A 60624-2022")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4669-2025</t>
+          <t>A 36645-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45687.77530092592</v>
+        <v>45153.55381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1166,49 +1166,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 4669-2025 artfynd.xlsx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 36645-2023 artfynd.xlsx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 4669-2025 karta.png", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 36645-2023 karta.png", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 4669-2025 FSC-klagomål.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 36645-2023 FSC-klagomål.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 4669-2025 FSC-klagomål mail.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 36645-2023 FSC-klagomål mail.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 4669-2025 tillsynsbegäran.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 36645-2023 tillsynsbegäran.docx", "A 36645-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 4669-2025 tillsynsbegäran mail.docx", "A 4669-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/fåglar/A 4669-2025 prioriterade fågelarter.docx", "A 4669-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 36645-2023 tillsynsbegäran mail.docx", "A 36645-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60624-2022</t>
+          <t>A 56305-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44911.65568287037</v>
+        <v>45242.82253472223</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1221,7 +1217,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>20.1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1259,27 +1255,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 60624-2022 artfynd.xlsx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 56305-2023 artfynd.xlsx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 60624-2022 karta.png", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 56305-2023 karta.png", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 60624-2022 FSC-klagomål.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 56305-2023 FSC-klagomål.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 60624-2022 FSC-klagomål mail.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 56305-2023 FSC-klagomål mail.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 60624-2022 tillsynsbegäran.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 56305-2023 tillsynsbegäran.docx", "A 56305-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 60624-2022 tillsynsbegäran mail.docx", "A 60624-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 56305-2023 tillsynsbegäran mail.docx", "A 56305-2023")</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1289,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 56305-2023</t>
+          <t>A 4669-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45242.82253472223</v>
+        <v>45687.77530092592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1391,7 +1387,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>20.1</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1400,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1425,31 +1421,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 56305-2023 artfynd.xlsx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 4669-2025 artfynd.xlsx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 56305-2023 karta.png", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 4669-2025 karta.png", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 56305-2023 FSC-klagomål.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 4669-2025 FSC-klagomål.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 56305-2023 FSC-klagomål mail.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 4669-2025 FSC-klagomål mail.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 56305-2023 tillsynsbegäran.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 4669-2025 tillsynsbegäran.docx", "A 4669-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 56305-2023 tillsynsbegäran mail.docx", "A 56305-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 4669-2025 tillsynsbegäran mail.docx", "A 4669-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/fåglar/A 4669-2025 prioriterade fågelarter.docx", "A 4669-2025")</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,14 +1541,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 36645-2023</t>
+          <t>A 38771-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45153.55381944445</v>
+        <v>45547.45959490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1595,31 +1595,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 36645-2023 artfynd.xlsx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/artfynd/A 38771-2024 artfynd.xlsx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 36645-2023 karta.png", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/kartor/A 38771-2024 karta.png", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 36645-2023 FSC-klagomål.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomål/A 38771-2024 FSC-klagomål.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 36645-2023 FSC-klagomål mail.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/klagomålsmail/A 38771-2024 FSC-klagomål mail.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 36645-2023 tillsynsbegäran.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsyn/A 38771-2024 tillsynsbegäran.docx", "A 38771-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 36645-2023 tillsynsbegäran mail.docx", "A 36645-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1439/tillsynsmail/A 38771-2024 tillsynsbegäran mail.docx", "A 38771-2024")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44293</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,14 +2030,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19498-2021</t>
+          <t>A 48592-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44312.35069444445</v>
+        <v>44452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2087,14 +2087,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48592-2021</t>
+          <t>A 19498-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44452</v>
+        <v>44312.35069444445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>10.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>44484</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44658</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3299,14 +3299,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48340-2022</t>
+          <t>A 46851-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44858.56366898148</v>
+        <v>44446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3356,14 +3356,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46851-2021</t>
+          <t>A 48340-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44446</v>
+        <v>44858.56366898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3584,14 +3584,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16285-2022</t>
+          <t>A 10629-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44670.50589120371</v>
+        <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3603,13 +3603,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3646,14 +3641,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10629-2021</t>
+          <t>A 16285-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44258</v>
+        <v>44670.50589120371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3665,8 +3660,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>44518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3874,14 +3874,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29188-2022</t>
+          <t>A 59062-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44750</v>
+        <v>44490.37527777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59062-2021</t>
+          <t>A 29188-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44490.37527777778</v>
+        <v>44750</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44383</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44465</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4444,14 +4444,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63176-2023</t>
+          <t>A 56918-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45273.57741898148</v>
+        <v>45244.58456018518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4501,14 +4501,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17627-2024</t>
+          <t>A 63176-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45418.30951388889</v>
+        <v>45273.57741898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,13 +4520,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4563,14 +4558,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17974-2024</t>
+          <t>A 37898-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45419.80950231481</v>
+        <v>44811.40451388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4578,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4620,14 +4615,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3010-2024</t>
+          <t>A 12507-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45315.87491898148</v>
+        <v>45730.63413194445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4635,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4677,14 +4672,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40774-2024</t>
+          <t>A 38363-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45558.48636574074</v>
+        <v>45883.54059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4692,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4734,14 +4729,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24284-2023</t>
+          <t>A 6666-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45079.88011574074</v>
+        <v>45700.46284722222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4749,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4791,14 +4786,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2798-2022</t>
+          <t>A 14018-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44581.38091435185</v>
+        <v>45740.319375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4848,14 +4843,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 149-2023</t>
+          <t>A 24936-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44928.54091435186</v>
+        <v>44341.44221064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4863,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4905,14 +4900,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14813-2023</t>
+          <t>A 54698-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45014.64974537037</v>
+        <v>44883.50241898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,13 +4919,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4967,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21588-2022</t>
+          <t>A 28702-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44706</v>
+        <v>45478.5044212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4987,7 +4977,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5024,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35539-2021</t>
+          <t>A 13673-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44385</v>
+        <v>45736.8941087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5044,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5081,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21547-2022</t>
+          <t>A 57446-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44706.55664351852</v>
+        <v>44896.54659722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5101,7 +5091,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5138,14 +5128,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26108-2023</t>
+          <t>A 48479-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45091</v>
+        <v>45936.35118055555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5157,8 +5147,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5195,14 +5190,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57868-2022</t>
+          <t>A 20736-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44899.66722222222</v>
+        <v>45776.54106481482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5215,7 +5210,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5252,14 +5247,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16828-2023</t>
+          <t>A 17627-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45033</v>
+        <v>45418.30951388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5271,8 +5266,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6322-2024</t>
+          <t>A 20861-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45338.41071759259</v>
+        <v>45777.33300925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19389-2023</t>
+          <t>A 59023-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45049</v>
+        <v>45252</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12710-2024</t>
+          <t>A 48483-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45384.46582175926</v>
+        <v>45936.35569444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5442,8 +5442,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5480,14 +5485,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6180-2022</t>
+          <t>A 48087-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44600</v>
+        <v>45932.83972222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5500,7 +5505,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5537,14 +5542,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60382-2023</t>
+          <t>A 48948-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45259</v>
+        <v>44453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5557,7 +5562,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5594,14 +5599,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12533-2025</t>
+          <t>A 21126-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45730.69164351852</v>
+        <v>45777.90707175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5614,7 +5619,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5656,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15077-2025</t>
+          <t>A 21125-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45743.81966435185</v>
+        <v>45777.89259259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,7 +5676,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5713,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4525-2025</t>
+          <t>A 49069-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45687.22067129629</v>
+        <v>45937.64949074074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5733,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5770,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12198-2023</t>
+          <t>A 12710-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44998.57171296296</v>
+        <v>45384.46582175926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5790,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5827,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9308-2025</t>
+          <t>A 32608-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45714.6790625</v>
+        <v>45838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5847,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5886,7 +5891,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5936,14 +5941,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14014-2025</t>
+          <t>A 17974-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740.3164699074</v>
+        <v>45419.80950231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5961,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5998,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9285-2025</t>
+          <t>A 16828-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45714.64899305555</v>
+        <v>45033</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6018,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17911-2024</t>
+          <t>A 9308-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45419.51291666667</v>
+        <v>45714.6790625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6069,13 +6074,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53047-2024</t>
+          <t>A 55840-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45611.45182870371</v>
+        <v>45239</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6226,14 +6226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56715-2025</t>
+          <t>A 17487-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45975</v>
+        <v>45757.50351851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6245,13 +6245,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6288,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32608-2025</t>
+          <t>A 9280-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45838</v>
+        <v>45714.64130787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56716-2025</t>
+          <t>A 53047-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45975</v>
+        <v>45611.45182870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6364,13 +6359,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6407,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9280-2025</t>
+          <t>A 60456-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45714.64130787037</v>
+        <v>45643.60787037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6427,7 +6417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.9</v>
+        <v>16.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39630-2025</t>
+          <t>A 40778-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45890.58836805556</v>
+        <v>45558.49034722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56918-2023</t>
+          <t>A 39630-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45244.58456018518</v>
+        <v>45890.58836805556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6541,7 +6531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61642-2022</t>
+          <t>A 35539-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44916</v>
+        <v>44385</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.4</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23936-2025</t>
+          <t>A 40213-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45795.82481481481</v>
+        <v>45894.68621527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6655,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60456-2024</t>
+          <t>A 40221-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45643.60787037037</v>
+        <v>45894.69376157408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>16.9</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24082-2025</t>
+          <t>A 40222-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45796.55890046297</v>
+        <v>45894.69791666666</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6759,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6796,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24731-2025</t>
+          <t>A 40226-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45799.34209490741</v>
+        <v>45894.70033564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6816,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6853,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14018-2025</t>
+          <t>A 6322-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45740.319375</v>
+        <v>45338.41071759259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6873,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6920,14 +6910,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40420-2025</t>
+          <t>A 43684-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45895.58357638889</v>
+        <v>44837.62194444444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6930,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6977,14 +6967,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40213-2025</t>
+          <t>A 60382-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45894.68621527778</v>
+        <v>45259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6987,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7034,14 +7024,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40226-2025</t>
+          <t>A 40420-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45894.70033564815</v>
+        <v>45895.58357638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7044,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7091,14 +7081,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8574-2024</t>
+          <t>A 58330-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45355</v>
+        <v>44488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7111,7 +7101,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7148,14 +7138,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56699-2025</t>
+          <t>A 49097-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45977.20575231482</v>
+        <v>45937.6962037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7168,7 +7158,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7205,14 +7195,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56927-2025</t>
+          <t>A 27941-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45978.60552083333</v>
+        <v>45098.66324074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7225,7 +7215,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7262,14 +7252,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40221-2025</t>
+          <t>A 72655-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45894.69376157408</v>
+        <v>44546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7282,7 +7272,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7319,14 +7309,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40222-2025</t>
+          <t>A 9285-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45894.69791666666</v>
+        <v>45714.64899305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7339,7 +7329,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7376,14 +7366,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24751-2025</t>
+          <t>A 15077-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45799.35922453704</v>
+        <v>45743.81966435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7386,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7433,14 +7423,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24548-2025</t>
+          <t>A 12533-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45798.44768518519</v>
+        <v>45730.69164351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7443,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7490,14 +7480,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8594-2024</t>
+          <t>A 14014-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45355.64226851852</v>
+        <v>45740.3164699074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7500,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.4</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7547,14 +7537,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25095-2025</t>
+          <t>A 28530-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45800.33721064815</v>
+        <v>45478.32665509259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7557,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7604,14 +7594,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17640-2025</t>
+          <t>A 42329-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45758.32174768519</v>
+        <v>45904.68760416667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7614,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7661,14 +7651,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 45833-2022</t>
+          <t>A 50883-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44846.49806712963</v>
+        <v>45946.63247685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7671,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7718,14 +7708,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27941-2023</t>
+          <t>A 24082-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45098.66324074074</v>
+        <v>45796.55890046297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7738,7 +7728,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7775,14 +7765,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26292-2025</t>
+          <t>A 42310-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45805.63157407408</v>
+        <v>45904.65412037037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7795,7 +7785,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7832,14 +7822,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25890-2025</t>
+          <t>A 42257-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45804.53324074074</v>
+        <v>45904.59019675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7852,7 +7842,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7889,14 +7879,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46037-2023</t>
+          <t>A 17911-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45196</v>
+        <v>45419.51291666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,8 +7898,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7946,14 +7941,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22722-2023</t>
+          <t>A 23936-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45071.85158564815</v>
+        <v>45795.82481481481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7966,7 +7961,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8003,14 +7998,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42310-2025</t>
+          <t>A 50876-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45904.65412037037</v>
+        <v>45946.61502314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8018,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8060,14 +8055,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27054-2025</t>
+          <t>A 53906-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45811.62824074074</v>
+        <v>44469</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8075,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>20.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8117,14 +8112,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42329-2025</t>
+          <t>A 51468-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45904.68760416667</v>
+        <v>45950.6122800926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8132,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8174,14 +8169,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50009-2024</t>
+          <t>A 51483-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45598</v>
+        <v>45950.6207175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8189,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8231,14 +8226,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48850-2023</t>
+          <t>A 51476-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45209</v>
+        <v>45950.61899305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8246,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8288,14 +8283,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42257-2025</t>
+          <t>A 51271-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45904.59019675926</v>
+        <v>45949.84736111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8303,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8345,14 +8340,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 29399-2023</t>
+          <t>A 68285-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45106.4499074074</v>
+        <v>44526.68493055556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8360,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8409,7 +8404,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8466,7 +8461,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8516,14 +8511,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5436-2022</t>
+          <t>A 52584-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44595</v>
+        <v>45954.6255787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8531,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8573,14 +8568,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15046-2024</t>
+          <t>A 8574-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45399</v>
+        <v>45355</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8588,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8630,14 +8625,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58330-2021</t>
+          <t>A 54038-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44488</v>
+        <v>44470</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8645,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8687,14 +8682,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4207-2024</t>
+          <t>A 24548-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45324.37259259259</v>
+        <v>45798.44768518519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8702,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8744,14 +8739,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27755-2025</t>
+          <t>A 52567-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45815.76396990741</v>
+        <v>45954.59641203703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8759,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8801,14 +8796,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49825-2023</t>
+          <t>A 52725-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45212</v>
+        <v>45957.34657407407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8816,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8858,14 +8853,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5515-2025</t>
+          <t>A 24731-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45693.40458333334</v>
+        <v>45799.34209490741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8873,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8915,14 +8910,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44127-2025</t>
+          <t>A 64427-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45915.58274305556</v>
+        <v>45280.66630787037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8972,14 +8967,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44552-2025</t>
+          <t>A 53276-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45917.33799768519</v>
+        <v>45958.75099537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8992,7 +8987,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9029,14 +9024,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50454-2021</t>
+          <t>A 18186-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44459.52819444444</v>
+        <v>45420.65344907407</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9044,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9086,14 +9081,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24528-2021</t>
+          <t>A 54260-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44338.52836805556</v>
+        <v>45964.6600462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9101,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9143,14 +9138,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44990-2025</t>
+          <t>A 25095-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45918.65589120371</v>
+        <v>45800.33721064815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9163,7 +9158,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9200,14 +9195,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3657-2024</t>
+          <t>A 24751-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45321.3408449074</v>
+        <v>45799.35922453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9220,7 +9215,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9257,14 +9252,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8223-2024</t>
+          <t>A 25890-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45351.89471064815</v>
+        <v>45804.53324074074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9277,7 +9272,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9314,14 +9309,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8224-2024</t>
+          <t>A 58324-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45351.89734953704</v>
+        <v>44901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9334,7 +9329,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9371,14 +9366,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45669-2025</t>
+          <t>A 44127-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45923.35321759259</v>
+        <v>45915.58274305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9391,7 +9386,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9428,14 +9423,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2301-2022</t>
+          <t>A 54410-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44578</v>
+        <v>45965</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9448,7 +9443,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9485,14 +9480,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8257-2023</t>
+          <t>A 54401-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44974</v>
+        <v>45965</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9505,7 +9500,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9542,14 +9537,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30141-2025</t>
+          <t>A 54405-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45826.91336805555</v>
+        <v>45965</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9562,7 +9557,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9599,14 +9594,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61698-2021</t>
+          <t>A 23222-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44501</v>
+        <v>45452.86884259259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9614,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9656,14 +9651,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30143-2025</t>
+          <t>A 54535-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45826.92831018518</v>
+        <v>45965.64016203704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9676,7 +9671,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9713,14 +9708,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53906-2021</t>
+          <t>A 56619-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44469</v>
+        <v>44893.59541666666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9733,7 +9728,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>20.8</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9770,14 +9765,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 30737-2025</t>
+          <t>A 57868-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45831</v>
+        <v>44899.66722222222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9790,7 +9785,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9827,14 +9822,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 31146-2025</t>
+          <t>A 57869-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45832.63880787037</v>
+        <v>44899.67410879629</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9847,7 +9842,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9884,14 +9879,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31158-2025</t>
+          <t>A 44552-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45832.65253472222</v>
+        <v>45917.33799768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9904,7 +9899,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>12.3</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9941,14 +9936,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30994-2025</t>
+          <t>A 9736-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45832.4885300926</v>
+        <v>45362</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9961,7 +9956,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9998,14 +9993,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4646-2025</t>
+          <t>A 55087-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45687.65769675926</v>
+        <v>45968.33152777778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10018,7 +10013,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10055,14 +10050,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32225-2025</t>
+          <t>A 55299-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45835.59469907408</v>
+        <v>45969.80375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10075,7 +10070,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10112,14 +10107,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 31996-2025</t>
+          <t>A 55300-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45835.37305555555</v>
+        <v>45969.81296296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10132,7 +10127,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10169,14 +10164,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48948-2021</t>
+          <t>A 2117-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44453</v>
+        <v>44578.30037037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10189,7 +10184,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10226,14 +10221,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48087-2025</t>
+          <t>A 26292-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45932.83972222222</v>
+        <v>45805.63157407408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10246,7 +10241,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10283,14 +10278,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 72612-2021</t>
+          <t>A 44990-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44546.51971064815</v>
+        <v>45918.65589120371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10303,7 +10298,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10340,14 +10335,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31984-2025</t>
+          <t>A 58317-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45835.36079861111</v>
+        <v>44488.35737268518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10360,7 +10355,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10397,14 +10392,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 32013-2025</t>
+          <t>A 50009-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45835.40056712963</v>
+        <v>45598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10417,7 +10412,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10454,14 +10449,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32800-2025</t>
+          <t>A 30406-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45839.49458333333</v>
+        <v>45491.59671296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10474,7 +10469,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10511,14 +10506,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57446-2022</t>
+          <t>A 37136-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44896.54659722222</v>
+        <v>45539.580625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10531,7 +10526,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10568,14 +10563,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 32785-2025</t>
+          <t>A 4207-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45839.48150462963</v>
+        <v>45324.37259259259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10588,7 +10583,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10625,14 +10620,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42402-2023</t>
+          <t>A 8594-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45180</v>
+        <v>45355.64226851852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10645,7 +10640,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>12.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10682,14 +10677,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48479-2025</t>
+          <t>A 45669-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45936.35118055555</v>
+        <v>45923.35321759259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10701,13 +10696,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10744,14 +10734,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 32787-2025</t>
+          <t>A 45268-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45839.48538194445</v>
+        <v>44439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10764,7 +10754,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10801,14 +10791,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 48483-2025</t>
+          <t>A 27054-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45936.35569444444</v>
+        <v>45811.62824074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10820,13 +10810,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10863,14 +10848,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32789-2025</t>
+          <t>A 71963-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45839.48761574074</v>
+        <v>44544.32019675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10868,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>20.6</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10920,14 +10905,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 32799-2025</t>
+          <t>A 1997-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45839.49334490741</v>
+        <v>44939</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10925,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>11.8</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10977,14 +10962,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 32803-2025</t>
+          <t>A 27755-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45839.49835648148</v>
+        <v>45815.76396990741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10982,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11034,14 +11019,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60766-2023</t>
+          <t>A 8223-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45260.61935185185</v>
+        <v>45351.89471064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11039,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11091,14 +11076,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 64390-2023</t>
+          <t>A 8224-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45280.59041666667</v>
+        <v>45351.89734953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11096,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.4</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11148,14 +11133,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2117-2022</t>
+          <t>A 56699-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44578.30037037037</v>
+        <v>45977.20575231482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11153,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11205,14 +11190,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49069-2025</t>
+          <t>A 56927-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45937.64949074074</v>
+        <v>45978.60552083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11210,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11262,14 +11247,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1997-2023</t>
+          <t>A 56715-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44939</v>
+        <v>45975</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11281,8 +11266,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11319,14 +11309,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49097-2025</t>
+          <t>A 56716-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45937.6962037037</v>
+        <v>45975</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11338,8 +11328,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11376,14 +11371,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 66955-2021</t>
+          <t>A 8452-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44522.5925462963</v>
+        <v>44977.48174768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11391,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11433,14 +11428,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 34379-2025</t>
+          <t>A 15046-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45846.54078703704</v>
+        <v>45399</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11448,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11490,14 +11485,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15043-2023</t>
+          <t>A 6180-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45015</v>
+        <v>44600</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11505,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11547,14 +11542,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58869-2025</t>
+          <t>A 4838-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45987.45971064815</v>
+        <v>44592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11562,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11604,14 +11599,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 50876-2025</t>
+          <t>A 30141-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45946.61502314815</v>
+        <v>45826.91336805555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11619,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11661,14 +11656,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1030-2022</t>
+          <t>A 30143-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44571</v>
+        <v>45826.92831018518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11676,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11718,14 +11713,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 57991-2023</t>
+          <t>A 31146-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45247.6030787037</v>
+        <v>45832.63880787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11733,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11775,14 +11770,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50883-2025</t>
+          <t>A 30994-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45946.63247685185</v>
+        <v>45832.4885300926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11790,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11832,14 +11827,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 19332-2023</t>
+          <t>A 61914-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45049</v>
+        <v>44917.75925925926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11847,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11889,14 +11884,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 51271-2025</t>
+          <t>A 30737-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45949.84736111111</v>
+        <v>45831</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11904,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>10.1</v>
+        <v>7.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11946,14 +11941,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28530-2024</t>
+          <t>A 31158-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45478.32665509259</v>
+        <v>45832.65253472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11961,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12003,14 +11998,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 51468-2025</t>
+          <t>A 5515-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45950.6122800926</v>
+        <v>45693.40458333334</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12018,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12060,14 +12055,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 51476-2025</t>
+          <t>A 22719-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45950.61899305556</v>
+        <v>45071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12075,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12117,14 +12112,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46040-2021</t>
+          <t>A 32225-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44441</v>
+        <v>45835.59469907408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12132,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12174,14 +12169,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51483-2025</t>
+          <t>A 31984-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45950.6207175926</v>
+        <v>45835.36079861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12189,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12231,14 +12226,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 59318-2025</t>
+          <t>A 31996-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45989.3315162037</v>
+        <v>45835.37305555555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12251,7 +12246,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12288,14 +12283,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53584-2024</t>
+          <t>A 32013-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45614.66459490741</v>
+        <v>45835.40056712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12308,7 +12303,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12345,14 +12340,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17610-2023</t>
+          <t>A 32785-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45036</v>
+        <v>45839.48150462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12365,7 +12360,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12402,14 +12397,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 52567-2025</t>
+          <t>A 32800-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45954.59641203703</v>
+        <v>45839.49458333333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12422,7 +12417,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12459,14 +12454,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37136-2024</t>
+          <t>A 32803-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45539.580625</v>
+        <v>45839.49835648148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12479,7 +12474,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12516,14 +12511,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 52725-2025</t>
+          <t>A 32787-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45957.34657407407</v>
+        <v>45839.48538194445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12573,14 +12568,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52584-2025</t>
+          <t>A 32799-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45954.6255787037</v>
+        <v>45839.49334490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12593,7 +12588,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>11.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12630,14 +12625,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36387-2025</t>
+          <t>A 32789-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45868.59709490741</v>
+        <v>45839.48761574074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12650,7 +12645,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.3</v>
+        <v>20.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12687,14 +12682,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36390-2025</t>
+          <t>A 19332-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45868.60686342593</v>
+        <v>45049</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12707,7 +12702,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>14.1</v>
+        <v>4.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12744,14 +12739,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 36392-2025</t>
+          <t>A 12460-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45868.61020833333</v>
+        <v>44638</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12764,7 +12759,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12801,14 +12796,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53276-2025</t>
+          <t>A 58869-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45958.75099537037</v>
+        <v>45987.45971064815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12821,7 +12816,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12858,14 +12853,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 56616-2022</t>
+          <t>A 40774-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44893.59137731481</v>
+        <v>45558.48636574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12878,7 +12873,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12915,14 +12910,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1021-2023</t>
+          <t>A 34379-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44935</v>
+        <v>45846.54078703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12935,7 +12930,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12972,14 +12967,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 46534-2024</t>
+          <t>A 59318-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45582.64283564815</v>
+        <v>45989.3315162037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12987,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13029,14 +13024,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 54405-2025</t>
+          <t>A 53196-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45965</v>
+        <v>45958</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13086,14 +13081,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 64427-2023</t>
+          <t>A 1610-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45280.66630787037</v>
+        <v>46034.46892361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13106,7 +13101,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13143,14 +13138,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54260-2025</t>
+          <t>A 62643-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45964.6600462963</v>
+        <v>45271.42447916666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13163,7 +13158,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13200,14 +13195,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59441-2024</t>
+          <t>A 60244-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45638.4434837963</v>
+        <v>45994.58803240741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13220,7 +13215,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13257,14 +13252,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 37067-2025</t>
+          <t>A 24284-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45875</v>
+        <v>45079.88011574074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13277,7 +13272,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13314,14 +13309,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 54410-2025</t>
+          <t>A 60321-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45965</v>
+        <v>45643.37196759259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13334,7 +13329,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13371,14 +13366,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54401-2025</t>
+          <t>A 2382-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45965</v>
+        <v>46036.66548611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13391,7 +13386,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13428,14 +13423,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54535-2025</t>
+          <t>A 36387-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45965.64016203704</v>
+        <v>45868.59709490741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13448,7 +13443,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13485,14 +13480,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 24791-2023</t>
+          <t>A 36390-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45084</v>
+        <v>45868.60686342593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13505,7 +13500,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.3</v>
+        <v>14.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13542,14 +13537,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17486-2025</t>
+          <t>A 36392-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45757.50133101852</v>
+        <v>45868.61020833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13562,7 +13557,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13599,14 +13594,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 68285-2021</t>
+          <t>A 2696-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44526.68493055556</v>
+        <v>46037.6750925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13619,7 +13614,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13656,14 +13651,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59964-2024</t>
+          <t>A 60468-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45642.35320601852</v>
+        <v>45643.62467592592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13676,7 +13671,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13713,14 +13708,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 55299-2025</t>
+          <t>A 59960-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45969.80375</v>
+        <v>45642</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13733,7 +13728,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13770,14 +13765,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55300-2025</t>
+          <t>A 59964-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45969.81296296296</v>
+        <v>45642.35320601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13790,7 +13785,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13827,14 +13822,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55087-2025</t>
+          <t>A 12198-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45968.33152777778</v>
+        <v>44998.57171296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13847,7 +13842,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13884,14 +13879,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 59022-2023</t>
+          <t>A 59441-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45252</v>
+        <v>45638.4434837963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13904,7 +13899,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13941,14 +13936,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59025-2023</t>
+          <t>A 35098-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45252</v>
+        <v>45145.45490740741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13961,7 +13956,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>44.5</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13998,14 +13993,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38366-2025</t>
+          <t>A 2948-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45883.55109953704</v>
+        <v>46038.59636574074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14018,7 +14013,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14055,14 +14050,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38363-2025</t>
+          <t>A 37067-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45883.54059027778</v>
+        <v>45875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14075,7 +14070,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14112,14 +14107,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 34241-2024</t>
+          <t>A 8450-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45524.57997685186</v>
+        <v>44977</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14132,7 +14127,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14169,14 +14164,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 63761-2023</t>
+          <t>A 17486-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45278</v>
+        <v>45757.50133101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14189,7 +14184,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14226,14 +14221,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 63762-2023</t>
+          <t>A 47045-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45278</v>
+        <v>45201.55571759259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14241,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14283,14 +14278,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54038-2021</t>
+          <t>A 38366-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44470</v>
+        <v>45883.55109953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14298,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14340,14 +14335,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 11370-2021</t>
+          <t>A 14813-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44263</v>
+        <v>45014.64974537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14365,7 +14360,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14402,14 +14397,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18635-2025</t>
+          <t>A 58868-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45763.55327546296</v>
+        <v>45987.45644675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14422,7 +14417,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14466,7 +14461,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14516,14 +14511,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 53196-2025</t>
+          <t>A 24791-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45958</v>
+        <v>45084</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14536,7 +14531,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14573,14 +14568,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 1610-2026</t>
+          <t>A 62223-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46034.46892361111</v>
+        <v>46006.58538194445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14593,7 +14588,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14630,14 +14625,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 30406-2024</t>
+          <t>A 4525-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45491.59671296296</v>
+        <v>45687.22067129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14650,7 +14645,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14687,14 +14682,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9736-2024</t>
+          <t>A 4646-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45362</v>
+        <v>45687.65769675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14707,7 +14702,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14744,14 +14739,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 2382-2026</t>
+          <t>A 66955-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46036.66548611111</v>
+        <v>44522.5925462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14764,7 +14759,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14801,14 +14796,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 17487-2025</t>
+          <t>A 20359-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45757.50351851852</v>
+        <v>45775.39707175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14821,7 +14816,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14858,14 +14853,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2696-2026</t>
+          <t>A 35761-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46037.6750925926</v>
+        <v>44386.58719907407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14878,7 +14873,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14915,14 +14910,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 62146-2023</t>
+          <t>A 62254-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45267.37630787037</v>
+        <v>46006.61049768519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14935,7 +14930,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14972,14 +14967,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 36606-2023</t>
+          <t>A 62405-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45153.48958333334</v>
+        <v>46007.42645833334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14992,7 +14987,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15029,14 +15024,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 60244-2025</t>
+          <t>A 62435-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45994.58803240741</v>
+        <v>46007.4637962963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15049,7 +15044,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15086,14 +15081,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2948-2026</t>
+          <t>A 22722-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46038.59636574074</v>
+        <v>45071.85158564815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15106,7 +15101,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15143,14 +15138,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3882-2025</t>
+          <t>A 61642-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45684.35550925926</v>
+        <v>44916</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15162,13 +15157,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15205,14 +15195,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1944-2024</t>
+          <t>A 62426-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45308</v>
+        <v>46007.45054398148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15215,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15262,14 +15252,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 46041-2021</t>
+          <t>A 35845-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44441.93865740741</v>
+        <v>45532.77804398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15272,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15319,14 +15309,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 29014-2024</t>
+          <t>A 18175-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45481.563125</v>
+        <v>45761.65313657407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15329,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.7</v>
+        <v>20.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15376,14 +15366,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 58868-2025</t>
+          <t>A 60766-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45987.45644675926</v>
+        <v>45260.61935185185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15386,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15433,14 +15423,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 10263-2021</t>
+          <t>A 5962-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44256</v>
+        <v>46052.50849537037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15443,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15490,14 +15480,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61431-2022</t>
+          <t>A 49825-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44916.36677083333</v>
+        <v>45212</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15500,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15547,14 +15537,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35173-2024</t>
+          <t>A 4168-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45530.42966435185</v>
+        <v>46044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15557,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15604,14 +15594,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 18178-2025</t>
+          <t>A 61431-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45761.65679398148</v>
+        <v>44916.36677083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15614,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15661,14 +15651,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 61915-2022</t>
+          <t>A 6210-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44917.7606712963</v>
+        <v>46055.42400462963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15671,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15718,14 +15708,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 43684-2022</t>
+          <t>A 57267-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44837.62194444444</v>
+        <v>44895.90114583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15728,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15775,14 +15765,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 14015-2025</t>
+          <t>A 6206-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45740.31795138889</v>
+        <v>46055.42060185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15795,7 +15785,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15832,14 +15822,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23222-2024</t>
+          <t>A 6194-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45452.86884259259</v>
+        <v>46055.39263888889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15852,7 +15842,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15889,14 +15879,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59960-2024</t>
+          <t>A 46041-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45642</v>
+        <v>44441.93865740741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15909,7 +15899,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15946,14 +15936,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 60475-2024</t>
+          <t>A 63761-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45643.63023148148</v>
+        <v>45278</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15966,7 +15956,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16003,14 +15993,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12507-2025</t>
+          <t>A 7075-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45730.63413194445</v>
+        <v>46058.32744212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16022,8 +16012,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16060,14 +16055,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 30993-2022</t>
+          <t>A 7230-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44768</v>
+        <v>46058.57175925926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16079,8 +16074,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16117,14 +16117,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 62405-2025</t>
+          <t>A 59022-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46007.42645833334</v>
+        <v>45252</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16174,14 +16174,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 62435-2025</t>
+          <t>A 59025-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46007.4637962963</v>
+        <v>45252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>44.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16231,14 +16231,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18175-2025</t>
+          <t>A 52151-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45761.65313657407</v>
+        <v>44873</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>20.5</v>
+        <v>7.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16288,14 +16288,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 28702-2024</t>
+          <t>A 15043-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45478.5044212963</v>
+        <v>45015</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16345,14 +16345,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 62223-2025</t>
+          <t>A 17640-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46006.58538194445</v>
+        <v>45758.32174768519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16402,14 +16402,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 62426-2025</t>
+          <t>A 7909-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46007.45054398148</v>
+        <v>46063.36493055556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.3</v>
+        <v>7.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16459,14 +16459,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 62254-2025</t>
+          <t>A 55310-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46006.61049768519</v>
+        <v>45237.89079861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16516,14 +16516,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 13960-2024</t>
+          <t>A 29770-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45392</v>
+        <v>44362</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16573,14 +16573,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 46-2024</t>
+          <t>A 2301-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45293.56115740741</v>
+        <v>44578</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16630,14 +16630,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 12460-2022</t>
+          <t>A 21311-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44638</v>
+        <v>45062</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16687,14 +16687,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 5506-2025</t>
+          <t>A 8675-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45693.39181712963</v>
+        <v>46066.4065162037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16706,8 +16706,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16744,14 +16749,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 6206-2026</t>
+          <t>A 29014-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46055.42060185185</v>
+        <v>45481.563125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16764,7 +16769,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16801,14 +16806,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 6194-2026</t>
+          <t>A 8920-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46055.39263888889</v>
+        <v>46069.33019675926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16820,8 +16825,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16858,14 +16868,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 4168-2026</t>
+          <t>A 24074-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46044</v>
+        <v>45078</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16878,7 +16888,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16915,14 +16925,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 5962-2026</t>
+          <t>A 24075-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46052.50849537037</v>
+        <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16935,7 +16945,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16972,14 +16982,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 44398-2024</t>
+          <t>A 9090-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45573.7003125</v>
+        <v>46069.62664351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16992,7 +17002,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17029,14 +17039,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 6210-2026</t>
+          <t>A 8257-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46055.42400462963</v>
+        <v>44974</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17049,7 +17059,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17086,14 +17096,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 58324-2022</t>
+          <t>A 9418-2026</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44901</v>
+        <v>46071.43393518519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17106,7 +17116,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17143,14 +17153,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 7075-2026</t>
+          <t>A 9441-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>46058.32744212963</v>
+        <v>46071.4659375</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17162,13 +17172,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>4.4</v>
+        <v>10.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17205,14 +17210,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 7230-2026</t>
+          <t>A 9450-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>46058.57175925926</v>
+        <v>46071.4775</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17224,13 +17229,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17267,14 +17267,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 22719-2023</t>
+          <t>A 9451-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45071</v>
+        <v>46071.48033564815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17324,14 +17324,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 7909-2026</t>
+          <t>A 18003-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46063.36493055556</v>
+        <v>45040</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>7.3</v>
+        <v>18.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17381,14 +17381,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 58317-2021</t>
+          <t>A 26883-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44488.35737268518</v>
+        <v>45470.63859953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17438,14 +17438,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 29770-2021</t>
+          <t>A 46534-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44362</v>
+        <v>45582.64283564815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17495,14 +17495,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 4672-2025</t>
+          <t>A 13559-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45687.79815972222</v>
+        <v>45388.57505787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17552,14 +17552,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 18003-2023</t>
+          <t>A 56614-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45040</v>
+        <v>44893.58832175926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>18.5</v>
+        <v>5.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17609,14 +17609,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 18188-2024</t>
+          <t>A 25826-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45420.6553587963</v>
+        <v>45467.40405092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17666,14 +17666,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 24075-2023</t>
+          <t>A 17129-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45078</v>
+        <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17723,14 +17723,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 18538-2022</t>
+          <t>A 2798-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44686.85798611111</v>
+        <v>44581.38091435185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17780,14 +17780,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 5032-2023</t>
+          <t>A 60330-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44958.57836805555</v>
+        <v>45643.38454861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17837,14 +17837,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 60321-2024</t>
+          <t>A 5437-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45643.37196759259</v>
+        <v>44595.42708333334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17894,14 +17894,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 9090-2026</t>
+          <t>A 25223-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46069.62664351852</v>
+        <v>45086</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17951,14 +17951,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 16424-2024</t>
+          <t>A 36606-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45407.66299768518</v>
+        <v>45153.48958333334</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18008,14 +18008,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 17586-2023</t>
+          <t>A 40630-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45034</v>
+        <v>45170.54494212963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18065,14 +18065,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 8452-2023</t>
+          <t>A 3010-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44977.48174768518</v>
+        <v>45315.87491898148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 8675-2026</t>
+          <t>A 26108-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46066.4065162037</v>
+        <v>45091</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18141,13 +18141,8 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18184,14 +18179,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 24936-2021</t>
+          <t>A 42402-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44341.44221064815</v>
+        <v>45180</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18204,7 +18199,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18241,14 +18236,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 35098-2023</t>
+          <t>A 3882-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45145.45490740741</v>
+        <v>45684.35550925926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18260,8 +18255,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18298,14 +18298,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 9418-2026</t>
+          <t>A 8561-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>46071.43393518519</v>
+        <v>45709.62383101852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18355,14 +18355,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 8920-2026</t>
+          <t>A 7389-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46069.33019675926</v>
+        <v>45705.3318287037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18372,11 +18372,6 @@
       <c r="E306" t="inlineStr">
         <is>
           <t>FÄRGELANDA</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G306" t="n">
@@ -18417,14 +18412,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 9451-2026</t>
+          <t>A 57557-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>46071.48033564815</v>
+        <v>45630.45277777778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18437,7 +18432,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18474,14 +18469,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 8819-2025</t>
+          <t>A 48850-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45712.75179398148</v>
+        <v>45209</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18494,7 +18489,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18531,14 +18526,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 7387-2025</t>
+          <t>A 18635-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45705.33028935185</v>
+        <v>45763.55327546296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18551,7 +18546,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18588,14 +18583,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 9441-2026</t>
+          <t>A 18538-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>46071.4659375</v>
+        <v>44686.85798611111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18608,7 +18603,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18645,14 +18640,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9450-2026</t>
+          <t>A 20036-2021</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>46071.4775</v>
+        <v>44314.33216435185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18702,14 +18697,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 20359-2025</t>
+          <t>A 5506-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45775.39707175926</v>
+        <v>45693.39181712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18722,7 +18717,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18759,14 +18754,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 18842-2025</t>
+          <t>A 51019-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45764.40886574074</v>
+        <v>45218.5928587963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18779,7 +18774,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18816,14 +18811,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 49826-2024</t>
+          <t>A 28803-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45597.40923611111</v>
+        <v>44749.42851851852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18836,7 +18831,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18873,14 +18868,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 44796-2022</t>
+          <t>A 18188-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44841</v>
+        <v>45420.6553587963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18893,7 +18888,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18930,14 +18925,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 57869-2022</t>
+          <t>A 44796-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44899.67410879629</v>
+        <v>44841</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18950,7 +18945,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18987,14 +18982,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 50046-2023</t>
+          <t>A 37784-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45215</v>
+        <v>45159.83563657408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19007,7 +19002,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19044,14 +19039,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 26883-2024</t>
+          <t>A 37787-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45470.63859953704</v>
+        <v>45159.83638888889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19064,7 +19059,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19101,14 +19096,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 51434-2022</t>
+          <t>A 37788-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44869.47741898148</v>
+        <v>45159.83733796296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19121,7 +19116,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19158,14 +19153,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 60468-2024</t>
+          <t>A 59020-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45643.62467592592</v>
+        <v>45252</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19178,7 +19173,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19215,14 +19210,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 45268-2021</t>
+          <t>A 50046-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44439</v>
+        <v>45215</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19235,7 +19230,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19272,14 +19267,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 35845-2024</t>
+          <t>A 35844-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45532.77804398148</v>
+        <v>45532.77702546296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19292,7 +19287,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19329,14 +19324,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 47461-2023</t>
+          <t>A 30993-2022</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45202.85652777777</v>
+        <v>44768</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19349,7 +19344,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19386,14 +19381,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 21311-2023</t>
+          <t>A 21547-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45062</v>
+        <v>44706.55664351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19406,7 +19401,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19443,14 +19438,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 56619-2022</t>
+          <t>A 46037-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44893.59541666666</v>
+        <v>45196</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19463,7 +19458,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19500,14 +19495,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 13673-2025</t>
+          <t>A 51434-2022</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45736.8941087963</v>
+        <v>44869.47741898148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19520,7 +19515,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19557,14 +19552,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 34433-2023</t>
+          <t>A 56616-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45139</v>
+        <v>44893.59137731481</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19577,7 +19572,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>9.6</v>
+        <v>2.2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19614,14 +19609,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 20036-2021</t>
+          <t>A 10381-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44314.33216435185</v>
+        <v>44623.41340277778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19634,7 +19629,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19671,14 +19666,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 25826-2024</t>
+          <t>A 46-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45467.40405092593</v>
+        <v>45293.56115740741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19691,7 +19686,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19728,14 +19723,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 54698-2022</t>
+          <t>A 47461-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44883.50241898148</v>
+        <v>45202.85652777777</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19748,7 +19743,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19785,14 +19780,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 8450-2023</t>
+          <t>A 53559-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44977</v>
+        <v>44879</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19805,7 +19800,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19842,14 +19837,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 4285-2025</t>
+          <t>A 45710-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45685.64887731482</v>
+        <v>45579.58155092593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19862,7 +19857,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19899,14 +19894,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 37783-2023</t>
+          <t>A 72612-2021</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45159</v>
+        <v>44546.51971064815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19919,7 +19914,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19956,14 +19951,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 45710-2024</t>
+          <t>A 62146-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45579.58155092593</v>
+        <v>45267.37630787037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19976,7 +19971,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20013,14 +20008,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 51019-2023</t>
+          <t>A 4285-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45218.5928587963</v>
+        <v>45685.64887731482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20033,7 +20028,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20070,14 +20065,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 55840-2023</t>
+          <t>A 61698-2021</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45239</v>
+        <v>44501</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20090,7 +20085,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20127,14 +20122,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 71963-2021</t>
+          <t>A 16917-2025</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44544.32019675926</v>
+        <v>45755.36796296296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20147,7 +20142,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20184,14 +20179,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 4838-2022</t>
+          <t>A 50454-2021</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44592</v>
+        <v>44459.52819444444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20204,7 +20199,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20241,14 +20236,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 39962-2023</t>
+          <t>A 17586-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45168</v>
+        <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20261,7 +20256,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20298,14 +20293,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 37898-2022</t>
+          <t>A 22721-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44811.40451388889</v>
+        <v>45071.83787037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20318,7 +20313,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20355,14 +20350,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 61914-2022</t>
+          <t>A 46040-2021</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>44917.75925925926</v>
+        <v>44441</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20375,7 +20370,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20412,14 +20407,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 60330-2024</t>
+          <t>A 5436-2022</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45643.38454861111</v>
+        <v>44595</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20432,7 +20427,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>4.3</v>
+        <v>11.3</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20469,14 +20464,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 19386-2023</t>
+          <t>A 1944-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45049</v>
+        <v>45308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20489,7 +20484,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20526,14 +20521,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 55310-2023</t>
+          <t>A 47530-2024</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45237.89079861111</v>
+        <v>45587.64105324074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20546,7 +20541,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20583,14 +20578,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 47045-2023</t>
+          <t>A 11370-2021</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45201.55571759259</v>
+        <v>44263</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20602,8 +20597,13 @@
           <t>FÄRGELANDA</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G345" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20640,14 +20640,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 52151-2022</t>
+          <t>A 21588-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44873</v>
+        <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20697,14 +20697,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 62643-2023</t>
+          <t>A 9792-2021</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45271.42447916666</v>
+        <v>44252.68719907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20754,14 +20754,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 35844-2024</t>
+          <t>A 61915-2022</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45532.77702546296</v>
+        <v>44917.7606712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20811,14 +20811,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 4206-2024</t>
+          <t>A 10263-2021</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45324</v>
+        <v>44256</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20868,14 +20868,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 40630-2023</t>
+          <t>A 18932-2024</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45170.54494212963</v>
+        <v>45427.43978009259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20925,14 +20925,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 34715-2023</t>
+          <t>A 53584-2024</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45141</v>
+        <v>45614.66459490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20982,14 +20982,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 16917-2025</t>
+          <t>A 1021-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45755.36796296296</v>
+        <v>44935</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21039,14 +21039,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 40778-2024</t>
+          <t>A 149-2023</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45558.49034722222</v>
+        <v>44928.54091435186</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21096,14 +21096,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 7389-2025</t>
+          <t>A 8819-2025</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45705.3318287037</v>
+        <v>45712.75179398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21153,14 +21153,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 9792-2021</t>
+          <t>A 13960-2024</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>44252.68719907408</v>
+        <v>45392</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21210,14 +21210,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 24074-2023</t>
+          <t>A 19386-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45078</v>
+        <v>45049</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21267,14 +21267,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 35761-2021</t>
+          <t>A 39962-2023</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44386.58719907407</v>
+        <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21324,14 +21324,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 1678-2025</t>
+          <t>A 29399-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45670.69351851852</v>
+        <v>45106.4499074074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21381,14 +21381,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 59020-2023</t>
+          <t>A 45833-2022</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45252</v>
+        <v>44846.49806712963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>3.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21438,14 +21438,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 6666-2025</t>
+          <t>A 17610-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45700.46284722222</v>
+        <v>45036</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21495,14 +21495,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 59023-2023</t>
+          <t>A 63762-2023</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45252</v>
+        <v>45278</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21552,14 +21552,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 57557-2024</t>
+          <t>A 4206-2024</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45630.45277777778</v>
+        <v>45324</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21609,14 +21609,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 53559-2022</t>
+          <t>A 8185-2023</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>44879</v>
+        <v>44974.49958333333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21666,14 +21666,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 27521-2024</t>
+          <t>A 34433-2023</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45474.55655092592</v>
+        <v>45139</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21723,14 +21723,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 8185-2023</t>
+          <t>A 5032-2023</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>44974.49958333333</v>
+        <v>44958.57836805555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21780,14 +21780,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 8561-2025</t>
+          <t>A 35173-2024</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45709.62383101852</v>
+        <v>45530.42966435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21837,14 +21837,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 18932-2024</t>
+          <t>A 18178-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45427.43978009259</v>
+        <v>45761.65679398148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -21894,14 +21894,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 56614-2022</t>
+          <t>A 57991-2023</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>44893.58832175926</v>
+        <v>45247.6030787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -21951,14 +21951,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 18186-2024</t>
+          <t>A 17456-2024</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45420.65344907407</v>
+        <v>45415.4027199074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22008,14 +22008,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 25223-2023</t>
+          <t>A 18842-2025</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45086</v>
+        <v>45764.40886574074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22065,14 +22065,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 47530-2024</t>
+          <t>A 14015-2025</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45587.64105324074</v>
+        <v>45740.31795138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -22122,14 +22122,14 @@
     <row r="372" ht="15" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 5437-2022</t>
+          <t>A 44398-2024</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>44595.42708333334</v>
+        <v>45573.7003125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -22179,14 +22179,14 @@
     <row r="373" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>A 72655-2021</t>
+          <t>A 24528-2021</t>
         </is>
       </c>
       <c r="B373" s="1" t="n">
-        <v>44546</v>
+        <v>44338.52836805556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -22236,14 +22236,14 @@
     <row r="374" ht="15" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>A 31885-2022</t>
+          <t>A 19389-2023</t>
         </is>
       </c>
       <c r="B374" s="1" t="n">
-        <v>44777.45040509259</v>
+        <v>45049</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -22293,14 +22293,14 @@
     <row r="375" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>A 44846-2024</t>
+          <t>A 34241-2024</t>
         </is>
       </c>
       <c r="B375" s="1" t="n">
-        <v>45574</v>
+        <v>45524.57997685186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -22350,14 +22350,14 @@
     <row r="376" ht="15" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
-          <t>A 28803-2022</t>
+          <t>A 27521-2024</t>
         </is>
       </c>
       <c r="B376" s="1" t="n">
-        <v>44749.42851851852</v>
+        <v>45474.55655092592</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -22407,14 +22407,14 @@
     <row r="377" ht="15" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
-          <t>A 17456-2024</t>
+          <t>A 7387-2025</t>
         </is>
       </c>
       <c r="B377" s="1" t="n">
-        <v>45415.4027199074</v>
+        <v>45705.33028935185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -22464,14 +22464,14 @@
     <row r="378" ht="15" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>A 57267-2022</t>
+          <t>A 44846-2024</t>
         </is>
       </c>
       <c r="B378" s="1" t="n">
-        <v>44895.90114583333</v>
+        <v>45574</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>7.2</v>
+        <v>0.4</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -22528,7 +22528,7 @@
         <v>44504</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22578,14 +22578,14 @@
     <row r="380" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
-          <t>A 37784-2023</t>
+          <t>A 31885-2022</t>
         </is>
       </c>
       <c r="B380" s="1" t="n">
-        <v>45159.83563657408</v>
+        <v>44777.45040509259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -22635,14 +22635,14 @@
     <row r="381" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
-          <t>A 37787-2023</t>
+          <t>A 1030-2022</t>
         </is>
       </c>
       <c r="B381" s="1" t="n">
-        <v>45159.83638888889</v>
+        <v>44571</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -22692,14 +22692,14 @@
     <row r="382" ht="15" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
-          <t>A 37788-2023</t>
+          <t>A 34715-2023</t>
         </is>
       </c>
       <c r="B382" s="1" t="n">
-        <v>45159.83733796296</v>
+        <v>45141</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -22749,14 +22749,14 @@
     <row r="383" ht="15" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
-          <t>A 13559-2024</t>
+          <t>A 1678-2025</t>
         </is>
       </c>
       <c r="B383" s="1" t="n">
-        <v>45388.57505787037</v>
+        <v>45670.69351851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -22806,14 +22806,14 @@
     <row r="384" ht="15" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
-          <t>A 10381-2022</t>
+          <t>A 37783-2023</t>
         </is>
       </c>
       <c r="B384" s="1" t="n">
-        <v>44623.41340277778</v>
+        <v>45159</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -22863,14 +22863,14 @@
     <row r="385" ht="15" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
-          <t>A 17129-2023</t>
+          <t>A 64390-2023</t>
         </is>
       </c>
       <c r="B385" s="1" t="n">
-        <v>45034</v>
+        <v>45280.59041666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -22920,14 +22920,14 @@
     <row r="386" ht="15" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
-          <t>A 22721-2023</t>
+          <t>A 3657-2024</t>
         </is>
       </c>
       <c r="B386" s="1" t="n">
-        <v>45071.83787037037</v>
+        <v>45321.3408449074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -22977,14 +22977,14 @@
     <row r="387" ht="15" customHeight="1">
       <c r="A387" t="inlineStr">
         <is>
-          <t>A 20736-2025</t>
+          <t>A 60475-2024</t>
         </is>
       </c>
       <c r="B387" s="1" t="n">
-        <v>45776.54106481482</v>
+        <v>45643.63023148148</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -23034,14 +23034,14 @@
     <row r="388" ht="15" customHeight="1">
       <c r="A388" t="inlineStr">
         <is>
-          <t>A 20861-2025</t>
+          <t>A 49826-2024</t>
         </is>
       </c>
       <c r="B388" s="1" t="n">
-        <v>45777.33300925926</v>
+        <v>45597.40923611111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -23091,14 +23091,14 @@
     <row r="389" ht="15" customHeight="1">
       <c r="A389" t="inlineStr">
         <is>
-          <t>A 21126-2025</t>
+          <t>A 16424-2024</t>
         </is>
       </c>
       <c r="B389" s="1" t="n">
-        <v>45777.90707175926</v>
+        <v>45407.66299768518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -23148,14 +23148,14 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>A 21125-2025</t>
+          <t>A 4672-2025</t>
         </is>
       </c>
       <c r="B390" s="1" t="n">
-        <v>45777.89259259259</v>
+        <v>45687.79815972222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44293</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44484</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44658</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44387</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44750</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44383</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44465</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44928.54091435186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45014.64974537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44706</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44706.55664351852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44899.66722222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45049</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45384.46582175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45687.22067129629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44998.57171296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45244.58456018518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45740.319375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45355.64226851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45758.32174768519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44846.49806712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45196</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45071.85158564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45209</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45106.4499074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45399</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45693.40458333334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45212</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44459.52819444444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44338.52836805556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45351.89471064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45351.89734953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44578</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45321.3408449074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44469</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45714.6790625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45687.65769675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45611.45182870371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45838</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45714.64130787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44546.51971064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45890.58836805556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45643.60787037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45826.91336805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45895.58357638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45180</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45826.92831018518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45894.68621527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45894.70033564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45831</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45894.69376157408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45894.69791666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45832.63880787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45260.61935185185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45280.59041666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44578.30037037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45832.65253472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45832.4885300926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44939</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44522.5925462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45835.59469907408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>45835.37305555555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45098.66324074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45835.36079861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45835.40056712963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45839.49458333333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45839.48150462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>45015</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>45839.48538194445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>45904.65412037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45904.68760416667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45839.48761574074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45904.59019675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45839.49334490741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45839.49835648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45247.6030787037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45049</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45478.32665509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>44441</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45614.66459490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45915.58274305556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45846.54078703704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45036</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45917.33799768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45539.580625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44935</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>45918.65589120371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45923.35321759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45582.64283564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45280.66630787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45638.4434837963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45084</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45868.59709490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45868.60686342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45868.61020833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44526.68493055556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45642.35320601852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45524.57997685186</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45278</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45278</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44470</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44263</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44453</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45763.55327546296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45932.83972222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>45757.50133101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44896.54659722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45491.59671296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45936.35118055555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45362</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45936.35569444444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45883.55109953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45883.54059027778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45937.64949074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45937.6962037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45267.37630787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45153.48958333334</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45757.50351851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45684.35550925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45946.63247685185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45308</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44441.93865740741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45481.563125</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45949.84736111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45950.6122800926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45950.61899305556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44256</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44916.36677083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45950.6207175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45530.42966435185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45761.65679398148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44917.7606712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44837.62194444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45740.31795138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45954.59641203703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45452.86884259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45957.34657407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45954.6255787037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45642</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45643.63023148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45730.63413194445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44768</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45958.75099537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45761.65313657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45478.5044212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45965</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45964.6600462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45965</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45965.64016203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45392</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45293.56115740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44638</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45969.80375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45969.81296296296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45968.33152777778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45693.39181712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45975</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45975</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45977.20575231482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45978.60552083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45573.7003125</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45071</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44488.35737268518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45987.45971064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45989.3315162037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45687.79815972222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45420.6553587963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45078</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44686.85798611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>46034.46892361111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44958.57836805555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45643.37196759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>46036.66548611111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>46037.6750925926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45994.58803240741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45034</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>46038.59636574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44341.44221064815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45145.45490740741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45987.45644675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45712.75179398148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45705.33028935185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45775.39707175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45764.40886574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45597.40923611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>46007.42645833334</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>46007.4637962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>46006.58538194445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>46007.45054398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>46006.61049768519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44841</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44899.67410879629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45470.63859953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44869.47741898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45643.62467592592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44439</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>46055.42060185185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>46055.39263888889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45532.77804398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>46044</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>46052.50849537037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>46055.42400462963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>45202.85652777777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>45062</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>46058.32744212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>46058.57175925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44893.59541666666</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45736.8941087963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>46063.36493055556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44314.33216435185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45467.40405092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44883.50241898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44977</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45685.64887731482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>46069.62664351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45579.58155092593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>46066.4065162037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>46071.43393518519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>46069.33019675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45218.5928587963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>46071.48033564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45239</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>46071.4659375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>46071.4775</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>46073</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44544.32019675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44592</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45168</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44811.40451388889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44917.75925925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45643.38454861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45049</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45237.89079861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45201.55571759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45271.42447916666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45532.77702546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45324</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45170.54494212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45141</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45755.36796296296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45558.49034722222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45705.3318287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44252.68719907408</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44386.58719907407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45670.69351851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45700.46284722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45252</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>45630.45277777778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44879</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45474.55655092592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44974.49958333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45709.62383101852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45427.43978009259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44893.58832175926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45420.65344907407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45086</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45587.64105324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44595.42708333334</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44546</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44777.45040509259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45574</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44749.42851851852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45415.4027199074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44895.90114583333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44504</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45159.83563657408</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45159.83638888889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45159.83733796296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45388.57505787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44623.41340277778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45034</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45071.83787037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45776.54106481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>45777.33300925926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>45777.90707175926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45777.89259259259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>45033</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45338.41071759259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45740.3164699074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45714.64899305555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45419.51291666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45795.82481481481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45796.55890046297</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45799.34209490741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45355</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45799.35922453704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45798.44768518519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45800.33721064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45805.63157407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45804.53324074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45811.62824074074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45598</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45324.37259259259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45815.76396990741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44293</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44484</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44658</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44387</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44750</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44383</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44465</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44928.54091435186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45014.64974537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44706</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44706.55664351852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44899.66722222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45049</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45384.46582175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45687.22067129629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44998.57171296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45244.58456018518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44916</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45740.319375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45355.64226851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45758.32174768519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44846.49806712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45196</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45071.85158564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45209</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45106.4499074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45399</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45693.40458333334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45212</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44459.52819444444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44338.52836805556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45351.89471064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45351.89734953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44578</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45321.3408449074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44469</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45714.6790625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45687.65769675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45611.45182870371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45838</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45714.64130787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44546.51971064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45890.58836805556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45643.60787037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45826.91336805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45895.58357638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45180</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45826.92831018518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45894.68621527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45894.70033564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45831</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45894.69376157408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45894.69791666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45832.63880787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45260.61935185185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45280.59041666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44578.30037037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45832.65253472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45832.4885300926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44939</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44522.5925462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45835.59469907408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>45835.37305555555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45098.66324074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45835.36079861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45835.40056712963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45839.49458333333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45839.48150462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>45015</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>45839.48538194445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>45904.65412037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45904.68760416667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45839.48761574074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45904.59019675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45839.49334490741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45839.49835648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45247.6030787037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45049</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45478.32665509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>44441</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45614.66459490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45915.58274305556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45846.54078703704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45036</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45917.33799768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45539.580625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44935</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>45918.65589120371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45923.35321759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45582.64283564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45280.66630787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45638.4434837963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45084</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45868.59709490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45868.60686342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45868.61020833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44526.68493055556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45642.35320601852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45524.57997685186</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45278</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45278</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44470</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44263</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44453</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45763.55327546296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45932.83972222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>45757.50133101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44896.54659722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45491.59671296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45936.35118055555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45362</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45936.35569444444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45883.55109953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45883.54059027778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45937.64949074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45937.6962037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45267.37630787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45153.48958333334</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45757.50351851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45684.35550925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45946.63247685185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45308</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44441.93865740741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45481.563125</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45949.84736111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45950.6122800926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45950.61899305556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44256</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44916.36677083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45950.6207175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45530.42966435185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45761.65679398148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44917.7606712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44837.62194444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45740.31795138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45954.59641203703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45452.86884259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45957.34657407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45954.6255787037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45642</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45643.63023148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45730.63413194445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44768</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45958.75099537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45761.65313657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45478.5044212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45965</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45964.6600462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45965</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45965.64016203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45392</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45293.56115740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44638</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45969.80375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45969.81296296296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45968.33152777778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45693.39181712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45975</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45975</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45977.20575231482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45978.60552083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45573.7003125</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45071</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44488.35737268518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45987.45971064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45989.3315162037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45687.79815972222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45420.6553587963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45078</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44686.85798611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>46034.46892361111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44958.57836805555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45643.37196759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>46036.66548611111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>46037.6750925926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45994.58803240741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45034</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>46038.59636574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44341.44221064815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45145.45490740741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45987.45644675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45712.75179398148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45705.33028935185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45775.39707175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45764.40886574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45597.40923611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>46007.42645833334</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>46007.4637962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>46006.58538194445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>46007.45054398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>46006.61049768519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44841</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44899.67410879629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45470.63859953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44869.47741898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45643.62467592592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44439</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>46055.42060185185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>46055.39263888889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45532.77804398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>46044</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>46052.50849537037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>46055.42400462963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>45202.85652777777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>45062</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>46058.32744212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>46058.57175925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44893.59541666666</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45736.8941087963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>46063.36493055556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44314.33216435185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45467.40405092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44883.50241898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44977</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45685.64887731482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>46069.62664351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45579.58155092593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>46066.4065162037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>46071.43393518519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>46069.33019675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45218.5928587963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>46071.48033564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45239</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>46071.4659375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>46071.4775</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>46073</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44544.32019675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44592</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45168</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44811.40451388889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44917.75925925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45643.38454861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45049</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45237.89079861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45201.55571759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45271.42447916666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45532.77702546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45324</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45170.54494212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45141</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45755.36796296296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45558.49034722222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45705.3318287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44252.68719907408</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44386.58719907407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45670.69351851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45700.46284722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45252</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>45630.45277777778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44879</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45474.55655092592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44974.49958333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45709.62383101852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45427.43978009259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44893.58832175926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45420.65344907407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45086</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45587.64105324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44595.42708333334</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44546</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44777.45040509259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45574</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44749.42851851852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45415.4027199074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44895.90114583333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44504</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45159.83563657408</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45159.83638888889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45159.83733796296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45388.57505787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44623.41340277778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45034</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45071.83787037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45776.54106481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>45777.33300925926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>45777.90707175926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45777.89259259259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>45033</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45338.41071759259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45740.3164699074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45714.64899305555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45419.51291666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45795.82481481481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45796.55890046297</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45799.34209490741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45355</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45799.35922453704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45798.44768518519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45800.33721064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45805.63157407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45804.53324074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45811.62824074074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45598</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45324.37259259259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45815.76396990741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45904.68368055556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44935.68083333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45908.63990740741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44911.65568287037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45153.55381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45242.82253472223</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45687.77530092592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>45766.75263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45547.45959490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44837.59271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44293</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44490.36791666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44595.45362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44490</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44790.63319444445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44312.35069444445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44484</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44516.35253472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44526.68170138889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44670.46336805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44658</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44602.34833333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44496.43965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>44265.43287037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44593.37697916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44330.6234375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44858.56366898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44550.78354166666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44711.69013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44670.50589120371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44750</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44490.37527777778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44777.43228009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44385.51613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44490.4315625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44383</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44465</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44811.40451388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44341.44221064815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45700.46284722222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44883.50241898148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45736.8941087963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45418.30951388889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45252</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45384.46582175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>45419.80950231481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>45239</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45558.49034722222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45244.58456018518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44837.62194444444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44488</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>45478.32665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44526.68493055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44470</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44901</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45280.66630787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45420.65344907407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45452.86884259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44893.59541666666</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44488.35737268518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44899.66722222222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44899.67410879629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44578.30037037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45491.59671296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45539.580625</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45355.64226851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45805.63157407408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44439</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>45598</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44544.32019675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45838</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>45757.50461805556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44939</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45324.37259259259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45351.89471064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45351.89734953704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45714.6790625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>45784.78842592592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45757.50351851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45714.64130787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>45611.45182870371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>45643.60787037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45811.62824074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>45890.58836805556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45894.68621527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44977.48174768518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45894.69376157408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45815.76396990741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45894.69791666666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45894.70033564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45399</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44917.75925925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45895.58357638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45098.66324074074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45693.40458333334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>45826.91336805555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45826.92831018518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>45904.68760416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>45832.63880787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>45832.4885300926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45904.65412037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>45831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>45904.59019675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>45832.65253472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>45049</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44638</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>45603.45733796297</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>45558.48636574074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45835.59469907408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45835.36079861111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45908.6643287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45835.37305555555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45835.40056712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45839.48150462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45839.49458333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45839.49835648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45839.48538194445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45839.49334490741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45271.42447916666</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45839.48761574074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45079.88011574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45643.37196759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45846.54078703704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45643.62467592592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>45642</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45642.35320601852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>44998.57171296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45638.4434837963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45915.58274305556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45145.45490740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45917.33799768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>44977</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45918.65589120371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45923.35321759259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45868.59709490741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45868.60686342593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45868.61020833333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45201.55571759259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45014.64974537037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45875</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45757.50133101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45098.55013888889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45084</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44896.54659722222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45687.22067129629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45936.35118055555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>45687.65769675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44522.5925462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45775.39707175926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44386.58719907407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45936.35569444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45932.83972222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45937.64949074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45883.55109953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45937.6962037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45071.85158564815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44916</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45532.77804398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45761.65313657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45260.61935185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45883.54059027778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45212</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45946.63247685185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44916.36677083333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44895.90114583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44441.93865740741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45950.6122800926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45950.6207175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>45950.61899305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45949.84736111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45954.6255787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45252</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>45252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>45954.59641203703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45957.34657407407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>45015</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45758.32174768519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>45958.75099537037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45237.89079861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45964.6600462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45965</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45965</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45965.64016203704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44578</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45062</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45968.33152777778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45481.563125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45078</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45078</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45969.80375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45969.81296296296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45977.20575231482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45978.60552083333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45975</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45975</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45040</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45470.63859953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45582.64283564815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45388.57505787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44893.58832175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45467.40405092593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45034</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44581.38091435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45987.45971064815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45643.38454861111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44595.42708333334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45989.3315162037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45958</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45994.58803240741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45153.48958333334</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45170.54494212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45315.87491898148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45987.45644675926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45180</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>46006.58538194445</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45684.35550925926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>45709.62383101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>45705.3318287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>46006.61049768519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>45630.45277777778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>45209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>46007.42645833334</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>46007.4637962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>46007.45054398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>46052.50849537037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>46044</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45763.55327546296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>46055.42400462963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44686.85798611111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44314.33216435185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>45693.39181712963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45218.5928587963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>46055.42060185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>46055.39263888889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44749.42851851852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45420.6553587963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44841</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>46058.32744212963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>46058.57175925926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45159.83563657408</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45159.83638888889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45159.83733796296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45252</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45215</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45532.77702546296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44768</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>46063.36493055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44706.55664351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45196</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44869.47741898148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44893.59137731481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>46066.4065162037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>46069.33019675926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>46069.62664351852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>46071.43393518519</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>46071.4659375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>46071.4775</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>46071.48033564815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44623.41340277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45293.56115740741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>46034.46892361111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>46076.49528935185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45202.85652777777</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44879</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>46073</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45579.58155092593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44546.51971064815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45267.37630787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45685.64887731482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44501</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>46076</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45755.36796296296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44459.52819444444</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>46036.66548611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>46080.47733796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>46080.48048611111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>46038.59636574074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>46037.6750925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45071.83787037037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44441</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44595</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45308</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45587.64105324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44263</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44706</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44917.7606712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44256</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45427.43978009259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45614.66459490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44935</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44928.54091435186</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45712.75179398148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45392</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45049</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45106.4499074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44846.49806712963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45036</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>45324</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44974.49958333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>45139</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44958.57836805555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>45530.42966435185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>45761.65679398148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45247.6030787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45415.4027199074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>45764.40886574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45740.31795138889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45573.7003125</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44338.52836805556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45524.57997685186</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45474.55655092592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45705.33028935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44504</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44777.45040509259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44571</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45141</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45670.69351851852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45159</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45280.59041666667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45321.3408449074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45643.63023148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45597.40923611111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45407.66299768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45687.79815972222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45273.57741898148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45730.63413194445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>45740.319375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>45478.5044212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>45776.54106481482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>45777.33300925926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>45777.90707175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45777.89259259259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45033</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45338.41071759259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45714.64899305555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45743.81966435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45730.69164351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45740.3164699074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45796.55890046297</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45419.51291666667</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45795.82481481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45355</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45798.44768518519</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45799.34209490741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45800.33721064815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45799.35922453704</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45804.53324074074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
